--- a/eform-client/cypress/fixtures/2023-01-01_2023-05-11_report.xlsx
+++ b/eform-client/cypress/fixtures/2023-01-01_2023-05-11_report.xlsx
@@ -8,7 +8,9 @@
   <x:sheets>
     <x:sheet name="Dashboard" sheetId="2" r:id="rId2"/>
   </x:sheets>
-  <x:definedNames/>
+  <x:definedNames>
+    <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dashboard!$A$1:$R$132</x:definedName>
+  </x:definedNames>
   <x:calcPr calcId="125725"/>
 </x:workbook>
 </file>
@@ -6591,6 +6593,7 @@
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:autoFilter ref="A1:R132"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>

--- a/eform-client/cypress/fixtures/2023-01-01_2023-05-11_report.xlsx
+++ b/eform-client/cypress/fixtures/2023-01-01_2023-05-11_report.xlsx
@@ -9,7 +9,7 @@
     <x:sheet name="Dashboard" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames>
-    <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dashboard!$A$1:$R$132</x:definedName>
+    <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dashboard!$A$1:$S$132</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725"/>
 </x:workbook>
@@ -17,6 +17,9 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:si>
+    <x:t>Medarbejder nr.</x:t>
+  </x:si>
   <x:si>
     <x:t>Medarbejder</x:t>
   </x:si>
@@ -763,13 +766,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:R132"/>
+  <x:dimension ref="A1:S132"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:18">
+    <x:row r="1" spans="1:19">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -824,22 +827,22 @@
       <x:c r="R1" s="1" t="s">
         <x:v>17</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:18">
-      <x:c r="A2" s="0" t="s">
+      <x:c r="S1" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
+    </x:row>
+    <x:row r="2" spans="1:19">
       <x:c r="B2" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="C2" s="2">
+      <x:c r="C2" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D2" s="2">
         <x:v>44927</x:v>
       </x:c>
-      <x:c r="E2" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>20</x:v>
+      <x:c r="F2" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
         <x:v>21</x:v>
@@ -854,36 +857,36 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="K2" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L2" s="0">
-        <x:v>3.75</x:v>
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="L2" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M2" s="0">
         <x:v>3.75</x:v>
       </x:c>
       <x:c r="N2" s="0">
+        <x:v>3.75</x:v>
+      </x:c>
+      <x:c r="O2" s="0">
         <x:v>82.9</x:v>
       </x:c>
-      <x:c r="O2" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:18">
-      <x:c r="A3" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P2" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:19">
       <x:c r="B3" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C3" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D3" s="2">
         <x:v>44928</x:v>
       </x:c>
-      <x:c r="E3" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>26</x:v>
+      <x:c r="F3" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
         <x:v>27</x:v>
@@ -892,42 +895,42 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="J3" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K3" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L3" s="0">
-        <x:v>10.17</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L3" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M3" s="0">
         <x:v>10.17</x:v>
       </x:c>
       <x:c r="N3" s="0">
+        <x:v>10.17</x:v>
+      </x:c>
+      <x:c r="O3" s="0">
         <x:v>93.07</x:v>
       </x:c>
-      <x:c r="O3" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:18">
-      <x:c r="A4" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P3" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:19">
       <x:c r="B4" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C4" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D4" s="2">
         <x:v>44929</x:v>
       </x:c>
-      <x:c r="E4" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>30</x:v>
+      <x:c r="F4" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
         <x:v>31</x:v>
@@ -936,42 +939,42 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="I4" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J4" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K4" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L4" s="0">
-        <x:v>13.5</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L4" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M4" s="0">
         <x:v>13.5</x:v>
       </x:c>
       <x:c r="N4" s="0">
+        <x:v>13.5</x:v>
+      </x:c>
+      <x:c r="O4" s="0">
         <x:v>106.57</x:v>
       </x:c>
-      <x:c r="O4" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:18">
-      <x:c r="A5" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P4" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:19">
       <x:c r="B5" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="C5" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D5" s="2">
         <x:v>44930</x:v>
       </x:c>
-      <x:c r="E5" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>34</x:v>
+      <x:c r="F5" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
         <x:v>35</x:v>
@@ -980,1673 +983,1673 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="I5" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="J5" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K5" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L5" s="0">
-        <x:v>12.25</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L5" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M5" s="0">
         <x:v>12.25</x:v>
       </x:c>
       <x:c r="N5" s="0">
+        <x:v>12.25</x:v>
+      </x:c>
+      <x:c r="O5" s="0">
         <x:v>118.82</x:v>
       </x:c>
-      <x:c r="O5" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:18">
-      <x:c r="A6" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P5" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:19">
       <x:c r="B6" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C6" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D6" s="2">
         <x:v>44931</x:v>
       </x:c>
-      <x:c r="E6" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>30</x:v>
+      <x:c r="F6" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H6" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I6" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J6" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K6" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L6" s="0">
-        <x:v>11</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L6" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M6" s="0">
         <x:v>11</x:v>
       </x:c>
       <x:c r="N6" s="0">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="O6" s="0">
         <x:v>129.82</x:v>
       </x:c>
-      <x:c r="O6" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:18">
-      <x:c r="A7" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P6" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:19">
       <x:c r="B7" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="C7" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D7" s="2">
         <x:v>44932</x:v>
       </x:c>
-      <x:c r="E7" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F7" s="0" t="s">
-        <x:v>22</x:v>
+      <x:c r="F7" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H7" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I7" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J7" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K7" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L7" s="0">
-        <x:v>0</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L7" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M7" s="0">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N7" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O7" s="0">
         <x:v>129.82</x:v>
       </x:c>
-      <x:c r="O7" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:18">
-      <x:c r="A8" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P7" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:19">
       <x:c r="B8" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C8" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D8" s="2">
         <x:v>44933</x:v>
       </x:c>
-      <x:c r="E8" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F8" s="0" t="s">
-        <x:v>22</x:v>
+      <x:c r="F8" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H8" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J8" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K8" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L8" s="0">
-        <x:v>0</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L8" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M8" s="0">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N8" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O8" s="0">
         <x:v>129.82</x:v>
       </x:c>
-      <x:c r="O8" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:18">
-      <x:c r="A9" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P8" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:19">
       <x:c r="B9" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="C9" s="2">
+      <x:c r="C9" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D9" s="2">
         <x:v>44934</x:v>
       </x:c>
-      <x:c r="E9" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F9" s="0" t="s">
-        <x:v>22</x:v>
+      <x:c r="F9" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H9" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J9" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K9" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L9" s="0">
-        <x:v>0</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L9" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M9" s="0">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N9" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O9" s="0">
         <x:v>129.82</x:v>
       </x:c>
-      <x:c r="O9" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:18">
-      <x:c r="A10" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P9" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:19">
       <x:c r="B10" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C10" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D10" s="2">
         <x:v>44935</x:v>
       </x:c>
-      <x:c r="E10" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F10" s="0" t="s">
-        <x:v>26</x:v>
+      <x:c r="F10" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="J10" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K10" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L10" s="0">
-        <x:v>10.25</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L10" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M10" s="0">
         <x:v>10.25</x:v>
       </x:c>
       <x:c r="N10" s="0">
+        <x:v>10.25</x:v>
+      </x:c>
+      <x:c r="O10" s="0">
         <x:v>140.07</x:v>
       </x:c>
-      <x:c r="O10" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:18">
-      <x:c r="A11" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P10" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:19">
       <x:c r="B11" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C11" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D11" s="2">
         <x:v>44936</x:v>
       </x:c>
-      <x:c r="E11" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F11" s="0" t="s">
-        <x:v>34</x:v>
+      <x:c r="F11" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J11" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K11" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L11" s="0">
-        <x:v>10.75</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L11" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M11" s="0">
         <x:v>10.75</x:v>
       </x:c>
       <x:c r="N11" s="0">
+        <x:v>10.75</x:v>
+      </x:c>
+      <x:c r="O11" s="0">
         <x:v>150.82</x:v>
       </x:c>
-      <x:c r="O11" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:18">
-      <x:c r="A12" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P11" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:19">
       <x:c r="B12" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="C12" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D12" s="2">
         <x:v>44937</x:v>
       </x:c>
-      <x:c r="E12" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F12" s="0" t="s">
-        <x:v>26</x:v>
+      <x:c r="F12" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H12" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="I12" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J12" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K12" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L12" s="0">
-        <x:v>11.75</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L12" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M12" s="0">
         <x:v>11.75</x:v>
       </x:c>
       <x:c r="N12" s="0">
+        <x:v>11.75</x:v>
+      </x:c>
+      <x:c r="O12" s="0">
         <x:v>162.57</x:v>
       </x:c>
-      <x:c r="O12" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:18">
-      <x:c r="A13" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P12" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:19">
       <x:c r="B13" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C13" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D13" s="2">
         <x:v>44938</x:v>
       </x:c>
-      <x:c r="E13" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F13" s="0" t="s">
-        <x:v>26</x:v>
+      <x:c r="F13" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H13" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J13" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K13" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L13" s="0">
-        <x:v>8</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L13" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M13" s="0">
         <x:v>8</x:v>
       </x:c>
       <x:c r="N13" s="0">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="O13" s="0">
         <x:v>170.57</x:v>
       </x:c>
-      <x:c r="O13" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:18">
-      <x:c r="A14" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P13" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:19">
       <x:c r="B14" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="C14" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D14" s="2">
         <x:v>44939</x:v>
       </x:c>
-      <x:c r="E14" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F14" s="0" t="s">
-        <x:v>26</x:v>
+      <x:c r="F14" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G14" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H14" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I14" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="J14" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
       <x:c r="K14" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L14" s="0">
-        <x:v>7.17</x:v>
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="L14" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M14" s="0">
         <x:v>7.17</x:v>
       </x:c>
       <x:c r="N14" s="0">
+        <x:v>7.17</x:v>
+      </x:c>
+      <x:c r="O14" s="0">
         <x:v>177.74</x:v>
       </x:c>
-      <x:c r="O14" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:18">
-      <x:c r="A15" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P14" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:19">
       <x:c r="B15" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C15" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D15" s="2">
         <x:v>44940</x:v>
       </x:c>
-      <x:c r="E15" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F15" s="0" t="s">
-        <x:v>22</x:v>
+      <x:c r="F15" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H15" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I15" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J15" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K15" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L15" s="0">
-        <x:v>0</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L15" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M15" s="0">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N15" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O15" s="0">
         <x:v>177.74</x:v>
       </x:c>
-      <x:c r="O15" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:18">
-      <x:c r="A16" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P15" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:19">
       <x:c r="B16" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="C16" s="2">
+      <x:c r="C16" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D16" s="2">
         <x:v>44941</x:v>
       </x:c>
-      <x:c r="E16" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F16" s="0" t="s">
-        <x:v>22</x:v>
+      <x:c r="F16" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G16" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H16" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I16" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J16" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K16" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L16" s="0">
-        <x:v>0</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L16" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M16" s="0">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N16" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O16" s="0">
         <x:v>177.74</x:v>
       </x:c>
-      <x:c r="O16" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:18">
-      <x:c r="A17" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P16" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:19">
       <x:c r="B17" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C17" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D17" s="2">
         <x:v>44942</x:v>
       </x:c>
-      <x:c r="E17" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F17" s="0" t="s">
-        <x:v>26</x:v>
+      <x:c r="F17" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G17" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H17" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I17" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J17" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K17" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L17" s="0">
-        <x:v>10.5</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L17" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M17" s="0">
         <x:v>10.5</x:v>
       </x:c>
       <x:c r="N17" s="0">
+        <x:v>10.5</x:v>
+      </x:c>
+      <x:c r="O17" s="0">
         <x:v>188.24</x:v>
       </x:c>
-      <x:c r="O17" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:18">
-      <x:c r="A18" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P17" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:19">
       <x:c r="B18" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C18" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D18" s="2">
         <x:v>44943</x:v>
       </x:c>
-      <x:c r="E18" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F18" s="0" t="s">
-        <x:v>26</x:v>
+      <x:c r="F18" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H18" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I18" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="J18" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K18" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L18" s="0">
-        <x:v>10.83</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L18" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M18" s="0">
         <x:v>10.83</x:v>
       </x:c>
       <x:c r="N18" s="0">
+        <x:v>10.83</x:v>
+      </x:c>
+      <x:c r="O18" s="0">
         <x:v>199.07</x:v>
       </x:c>
-      <x:c r="O18" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:18">
-      <x:c r="A19" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P18" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:19">
       <x:c r="B19" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="C19" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D19" s="2">
         <x:v>44944</x:v>
       </x:c>
-      <x:c r="E19" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F19" s="0" t="s">
-        <x:v>26</x:v>
+      <x:c r="F19" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H19" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
       <x:c r="I19" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="J19" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K19" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L19" s="0">
-        <x:v>9.92</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L19" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M19" s="0">
         <x:v>9.92</x:v>
       </x:c>
       <x:c r="N19" s="0">
+        <x:v>9.92</x:v>
+      </x:c>
+      <x:c r="O19" s="0">
         <x:v>208.99</x:v>
       </x:c>
-      <x:c r="O19" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:18">
-      <x:c r="A20" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P19" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:19">
       <x:c r="B20" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C20" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D20" s="2">
         <x:v>44945</x:v>
       </x:c>
-      <x:c r="E20" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F20" s="0" t="s">
-        <x:v>26</x:v>
+      <x:c r="F20" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G20" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H20" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I20" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="J20" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K20" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L20" s="0">
-        <x:v>9.75</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L20" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M20" s="0">
         <x:v>9.75</x:v>
       </x:c>
       <x:c r="N20" s="0">
+        <x:v>9.75</x:v>
+      </x:c>
+      <x:c r="O20" s="0">
         <x:v>218.74</x:v>
       </x:c>
-      <x:c r="O20" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:18">
-      <x:c r="A21" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P20" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:19">
       <x:c r="B21" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="C21" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D21" s="2">
         <x:v>44946</x:v>
       </x:c>
-      <x:c r="E21" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F21" s="0" t="s">
-        <x:v>26</x:v>
+      <x:c r="F21" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G21" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H21" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I21" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="J21" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K21" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L21" s="0">
-        <x:v>10.17</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L21" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M21" s="0">
         <x:v>10.17</x:v>
       </x:c>
       <x:c r="N21" s="0">
+        <x:v>10.17</x:v>
+      </x:c>
+      <x:c r="O21" s="0">
         <x:v>228.91</x:v>
       </x:c>
-      <x:c r="O21" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:18">
-      <x:c r="A22" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P21" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:19">
       <x:c r="B22" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C22" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D22" s="2">
         <x:v>44947</x:v>
       </x:c>
-      <x:c r="E22" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F22" s="0" t="s">
-        <x:v>51</x:v>
+      <x:c r="F22" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G22" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
       <x:c r="H22" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I22" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J22" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
       <x:c r="K22" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L22" s="0">
-        <x:v>3.25</x:v>
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="L22" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M22" s="0">
         <x:v>3.25</x:v>
       </x:c>
       <x:c r="N22" s="0">
+        <x:v>3.25</x:v>
+      </x:c>
+      <x:c r="O22" s="0">
         <x:v>232.16</x:v>
       </x:c>
-      <x:c r="O22" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:18">
-      <x:c r="A23" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P22" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:19">
       <x:c r="B23" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="C23" s="2">
+      <x:c r="C23" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D23" s="2">
         <x:v>44948</x:v>
       </x:c>
-      <x:c r="E23" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F23" s="0" t="s">
-        <x:v>51</x:v>
+      <x:c r="F23" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G23" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H23" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="I23" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J23" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="K23" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L23" s="0">
-        <x:v>3.08</x:v>
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="L23" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M23" s="0">
         <x:v>3.08</x:v>
       </x:c>
       <x:c r="N23" s="0">
+        <x:v>3.08</x:v>
+      </x:c>
+      <x:c r="O23" s="0">
         <x:v>235.24</x:v>
       </x:c>
-      <x:c r="O23" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:18">
-      <x:c r="A24" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P23" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:19">
       <x:c r="B24" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C24" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D24" s="2">
         <x:v>44949</x:v>
       </x:c>
-      <x:c r="E24" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F24" s="0" t="s">
-        <x:v>54</x:v>
+      <x:c r="F24" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G24" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="H24" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I24" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="J24" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K24" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L24" s="0">
-        <x:v>9.58</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L24" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M24" s="0">
         <x:v>9.58</x:v>
       </x:c>
       <x:c r="N24" s="0">
+        <x:v>9.58</x:v>
+      </x:c>
+      <x:c r="O24" s="0">
         <x:v>244.82</x:v>
       </x:c>
-      <x:c r="O24" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:18">
-      <x:c r="A25" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P24" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:19">
       <x:c r="B25" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C25" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D25" s="2">
         <x:v>44950</x:v>
       </x:c>
-      <x:c r="E25" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F25" s="0" t="s">
-        <x:v>55</x:v>
+      <x:c r="F25" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G25" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H25" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I25" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="J25" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K25" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L25" s="0">
-        <x:v>9.25</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L25" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M25" s="0">
         <x:v>9.25</x:v>
       </x:c>
       <x:c r="N25" s="0">
+        <x:v>9.25</x:v>
+      </x:c>
+      <x:c r="O25" s="0">
         <x:v>254.07</x:v>
       </x:c>
-      <x:c r="O25" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:18">
-      <x:c r="A26" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P25" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:19">
       <x:c r="B26" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="C26" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D26" s="2">
         <x:v>44951</x:v>
       </x:c>
-      <x:c r="E26" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F26" s="0" t="s">
-        <x:v>57</x:v>
+      <x:c r="F26" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G26" s="0" t="s">
         <x:v>58</x:v>
       </x:c>
       <x:c r="H26" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="I26" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J26" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K26" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L26" s="0">
-        <x:v>11</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L26" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M26" s="0">
         <x:v>11</x:v>
       </x:c>
       <x:c r="N26" s="0">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="O26" s="0">
         <x:v>265.07</x:v>
       </x:c>
-      <x:c r="O26" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:18">
-      <x:c r="A27" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P26" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:19">
       <x:c r="B27" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C27" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D27" s="2">
         <x:v>44952</x:v>
       </x:c>
-      <x:c r="E27" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F27" s="0" t="s">
-        <x:v>26</x:v>
+      <x:c r="F27" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G27" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H27" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="I27" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J27" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K27" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L27" s="0">
-        <x:v>10.75</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L27" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M27" s="0">
         <x:v>10.75</x:v>
       </x:c>
       <x:c r="N27" s="0">
+        <x:v>10.75</x:v>
+      </x:c>
+      <x:c r="O27" s="0">
         <x:v>275.82</x:v>
       </x:c>
-      <x:c r="O27" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:18">
-      <x:c r="A28" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P27" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:19">
       <x:c r="B28" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="C28" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D28" s="2">
         <x:v>44953</x:v>
       </x:c>
-      <x:c r="E28" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F28" s="0" t="s">
-        <x:v>22</x:v>
+      <x:c r="F28" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G28" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H28" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I28" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J28" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K28" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L28" s="0">
-        <x:v>0</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L28" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M28" s="0">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N28" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O28" s="0">
         <x:v>275.82</x:v>
       </x:c>
-      <x:c r="O28" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:18">
-      <x:c r="A29" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P28" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:19">
       <x:c r="B29" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C29" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D29" s="2">
         <x:v>44954</x:v>
       </x:c>
-      <x:c r="E29" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F29" s="0" t="s">
-        <x:v>22</x:v>
+      <x:c r="F29" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G29" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H29" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I29" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J29" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K29" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L29" s="0">
-        <x:v>0</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L29" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M29" s="0">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N29" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O29" s="0">
         <x:v>275.82</x:v>
       </x:c>
-      <x:c r="O29" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="1:18">
-      <x:c r="A30" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P29" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:19">
       <x:c r="B30" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="C30" s="2">
+      <x:c r="C30" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D30" s="2">
         <x:v>44955</x:v>
       </x:c>
-      <x:c r="E30" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F30" s="0" t="s">
-        <x:v>22</x:v>
+      <x:c r="F30" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G30" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H30" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I30" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J30" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K30" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L30" s="0">
-        <x:v>0</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L30" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M30" s="0">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N30" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O30" s="0">
         <x:v>275.82</x:v>
       </x:c>
-      <x:c r="O30" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="1:18">
-      <x:c r="A31" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P30" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:19">
       <x:c r="B31" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C31" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D31" s="2">
         <x:v>44956</x:v>
       </x:c>
-      <x:c r="E31" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F31" s="0" t="s">
-        <x:v>20</x:v>
+      <x:c r="F31" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G31" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H31" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="I31" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J31" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K31" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L31" s="0">
-        <x:v>9.75</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L31" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M31" s="0">
         <x:v>9.75</x:v>
       </x:c>
       <x:c r="N31" s="0">
+        <x:v>9.75</x:v>
+      </x:c>
+      <x:c r="O31" s="0">
         <x:v>285.57</x:v>
       </x:c>
-      <x:c r="O31" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="1:18">
-      <x:c r="A32" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P31" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:19">
       <x:c r="B32" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C32" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D32" s="2">
         <x:v>44957</x:v>
       </x:c>
-      <x:c r="E32" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F32" s="0" t="s">
-        <x:v>20</x:v>
+      <x:c r="F32" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G32" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H32" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I32" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J32" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K32" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L32" s="0">
-        <x:v>9.5</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L32" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M32" s="0">
         <x:v>9.5</x:v>
       </x:c>
       <x:c r="N32" s="0">
+        <x:v>9.5</x:v>
+      </x:c>
+      <x:c r="O32" s="0">
         <x:v>134.74</x:v>
       </x:c>
-      <x:c r="O32" s="0">
+      <x:c r="P32" s="0">
         <x:v>160.33</x:v>
       </x:c>
-      <x:c r="R32" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="33" spans="1:18">
-      <x:c r="A33" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="S32" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:19">
       <x:c r="B33" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="C33" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D33" s="2">
         <x:v>44958</x:v>
       </x:c>
-      <x:c r="E33" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F33" s="0" t="s">
-        <x:v>26</x:v>
+      <x:c r="F33" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G33" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H33" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I33" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="J33" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K33" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L33" s="0">
-        <x:v>9.5</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L33" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M33" s="0">
         <x:v>9.5</x:v>
       </x:c>
       <x:c r="N33" s="0">
+        <x:v>9.5</x:v>
+      </x:c>
+      <x:c r="O33" s="0">
         <x:v>144.24</x:v>
       </x:c>
-      <x:c r="O33" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="1:18">
-      <x:c r="A34" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P33" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:19">
       <x:c r="B34" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C34" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D34" s="2">
         <x:v>44959</x:v>
       </x:c>
-      <x:c r="E34" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F34" s="0" t="s">
-        <x:v>60</x:v>
+      <x:c r="F34" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G34" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H34" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I34" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J34" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K34" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L34" s="0">
-        <x:v>8.58</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L34" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M34" s="0">
         <x:v>8.58</x:v>
       </x:c>
       <x:c r="N34" s="0">
+        <x:v>8.58</x:v>
+      </x:c>
+      <x:c r="O34" s="0">
         <x:v>152.82</x:v>
       </x:c>
-      <x:c r="O34" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="35" spans="1:18">
-      <x:c r="A35" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P34" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:19">
       <x:c r="B35" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="C35" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D35" s="2">
         <x:v>44960</x:v>
       </x:c>
-      <x:c r="E35" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F35" s="0" t="s">
-        <x:v>26</x:v>
+      <x:c r="F35" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G35" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H35" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="I35" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J35" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K35" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L35" s="0">
-        <x:v>7.5</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L35" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M35" s="0">
         <x:v>7.5</x:v>
       </x:c>
       <x:c r="N35" s="0">
+        <x:v>7.5</x:v>
+      </x:c>
+      <x:c r="O35" s="0">
         <x:v>160.32</x:v>
       </x:c>
-      <x:c r="O35" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="36" spans="1:18">
-      <x:c r="A36" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P35" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:19">
       <x:c r="B36" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C36" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D36" s="2">
         <x:v>44961</x:v>
       </x:c>
-      <x:c r="E36" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F36" s="0" t="s">
-        <x:v>22</x:v>
+      <x:c r="F36" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G36" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H36" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I36" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J36" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K36" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L36" s="0">
-        <x:v>0</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L36" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M36" s="0">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N36" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O36" s="0">
         <x:v>160.32</x:v>
       </x:c>
-      <x:c r="O36" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="37" spans="1:18">
-      <x:c r="A37" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P36" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:19">
       <x:c r="B37" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="C37" s="2">
+      <x:c r="C37" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D37" s="2">
         <x:v>44962</x:v>
       </x:c>
-      <x:c r="E37" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F37" s="0" t="s">
-        <x:v>22</x:v>
+      <x:c r="F37" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G37" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H37" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I37" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J37" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K37" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L37" s="0">
-        <x:v>0</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L37" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M37" s="0">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N37" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O37" s="0">
         <x:v>160.32</x:v>
       </x:c>
-      <x:c r="O37" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="38" spans="1:18">
-      <x:c r="A38" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P37" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:19">
       <x:c r="B38" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C38" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D38" s="2">
         <x:v>44963</x:v>
       </x:c>
-      <x:c r="E38" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F38" s="0" t="s">
-        <x:v>20</x:v>
+      <x:c r="F38" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G38" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H38" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I38" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="J38" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K38" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L38" s="0">
-        <x:v>9</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L38" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M38" s="0">
         <x:v>9</x:v>
       </x:c>
       <x:c r="N38" s="0">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="O38" s="0">
         <x:v>169.32</x:v>
       </x:c>
-      <x:c r="O38" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="39" spans="1:18">
-      <x:c r="A39" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P38" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:19">
       <x:c r="B39" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C39" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D39" s="2">
         <x:v>44964</x:v>
       </x:c>
-      <x:c r="E39" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F39" s="0" t="s">
-        <x:v>57</x:v>
+      <x:c r="F39" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G39" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="H39" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="I39" s="0" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="H39" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="I39" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
       <x:c r="J39" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K39" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L39" s="0">
-        <x:v>10.92</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L39" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M39" s="0">
         <x:v>10.92</x:v>
       </x:c>
       <x:c r="N39" s="0">
+        <x:v>10.92</x:v>
+      </x:c>
+      <x:c r="O39" s="0">
         <x:v>180.24</x:v>
       </x:c>
-      <x:c r="O39" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40" spans="1:18">
-      <x:c r="A40" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P39" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:19">
       <x:c r="B40" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="C40" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D40" s="2">
         <x:v>44965</x:v>
       </x:c>
-      <x:c r="E40" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F40" s="0" t="s">
-        <x:v>20</x:v>
+      <x:c r="F40" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G40" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H40" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="I40" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="J40" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K40" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L40" s="0">
-        <x:v>10.33</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L40" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M40" s="0">
         <x:v>10.33</x:v>
       </x:c>
       <x:c r="N40" s="0">
+        <x:v>10.33</x:v>
+      </x:c>
+      <x:c r="O40" s="0">
         <x:v>190.57</x:v>
       </x:c>
-      <x:c r="O40" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="1:18">
-      <x:c r="A41" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P40" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:19">
       <x:c r="B41" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C41" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D41" s="2">
         <x:v>44966</x:v>
       </x:c>
-      <x:c r="E41" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F41" s="0" t="s">
-        <x:v>20</x:v>
+      <x:c r="F41" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G41" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H41" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I41" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="J41" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K41" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L41" s="0">
-        <x:v>9.33</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L41" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M41" s="0">
         <x:v>9.33</x:v>
       </x:c>
       <x:c r="N41" s="0">
+        <x:v>9.33</x:v>
+      </x:c>
+      <x:c r="O41" s="0">
         <x:v>199.9</x:v>
       </x:c>
-      <x:c r="O41" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42" spans="1:18">
-      <x:c r="A42" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P41" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:19">
       <x:c r="B42" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="C42" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D42" s="2">
         <x:v>44967</x:v>
       </x:c>
-      <x:c r="E42" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F42" s="0" t="s">
-        <x:v>26</x:v>
+      <x:c r="F42" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G42" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H42" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I42" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J42" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K42" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L42" s="0">
-        <x:v>10</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L42" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M42" s="0">
         <x:v>10</x:v>
       </x:c>
       <x:c r="N42" s="0">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="O42" s="0">
         <x:v>209.9</x:v>
       </x:c>
-      <x:c r="O42" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="43" spans="1:18">
-      <x:c r="A43" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P42" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:19">
       <x:c r="B43" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C43" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C43" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D43" s="2">
         <x:v>44968</x:v>
       </x:c>
-      <x:c r="E43" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F43" s="0" t="s">
-        <x:v>20</x:v>
+      <x:c r="F43" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G43" s="0" t="s">
         <x:v>21</x:v>
@@ -2655,42 +2658,42 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="I43" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J43" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="K43" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L43" s="0">
-        <x:v>3.92</x:v>
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="L43" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M43" s="0">
         <x:v>3.92</x:v>
       </x:c>
       <x:c r="N43" s="0">
+        <x:v>3.92</x:v>
+      </x:c>
+      <x:c r="O43" s="0">
         <x:v>213.82</x:v>
       </x:c>
-      <x:c r="O43" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="44" spans="1:18">
-      <x:c r="A44" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P43" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:19">
       <x:c r="B44" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="C44" s="2">
+      <x:c r="C44" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D44" s="2">
         <x:v>44969</x:v>
       </x:c>
-      <x:c r="E44" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F44" s="0" t="s">
-        <x:v>20</x:v>
+      <x:c r="F44" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G44" s="0" t="s">
         <x:v>21</x:v>
@@ -2699,1802 +2702,1802 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="I44" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J44" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="K44" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L44" s="0">
-        <x:v>3.83</x:v>
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="L44" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M44" s="0">
         <x:v>3.83</x:v>
       </x:c>
       <x:c r="N44" s="0">
+        <x:v>3.83</x:v>
+      </x:c>
+      <x:c r="O44" s="0">
         <x:v>217.65</x:v>
       </x:c>
-      <x:c r="O44" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="45" spans="1:18">
-      <x:c r="A45" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P44" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:19">
       <x:c r="B45" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C45" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C45" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D45" s="2">
         <x:v>44970</x:v>
       </x:c>
-      <x:c r="E45" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F45" s="0" t="s">
-        <x:v>20</x:v>
+      <x:c r="F45" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G45" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H45" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I45" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="J45" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K45" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L45" s="0">
-        <x:v>10.5</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L45" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M45" s="0">
         <x:v>10.5</x:v>
       </x:c>
       <x:c r="N45" s="0">
+        <x:v>10.5</x:v>
+      </x:c>
+      <x:c r="O45" s="0">
         <x:v>228.15</x:v>
       </x:c>
-      <x:c r="O45" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="46" spans="1:18">
-      <x:c r="A46" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P45" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:19">
       <x:c r="B46" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C46" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C46" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D46" s="2">
         <x:v>44971</x:v>
       </x:c>
-      <x:c r="E46" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F46" s="0" t="s">
-        <x:v>20</x:v>
+      <x:c r="F46" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G46" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H46" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I46" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J46" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K46" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L46" s="0">
-        <x:v>9.5</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L46" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M46" s="0">
         <x:v>9.5</x:v>
       </x:c>
       <x:c r="N46" s="0">
+        <x:v>9.5</x:v>
+      </x:c>
+      <x:c r="O46" s="0">
         <x:v>237.65</x:v>
       </x:c>
-      <x:c r="O46" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="47" spans="1:18">
-      <x:c r="A47" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P46" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:19">
       <x:c r="B47" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C47" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D47" s="2">
+        <x:v>44972</x:v>
+      </x:c>
+      <x:c r="F47" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G47" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="H47" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="I47" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="C47" s="2">
-        <x:v>44972</x:v>
-      </x:c>
-      <x:c r="E47" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F47" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="G47" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="H47" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="I47" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
       <x:c r="J47" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K47" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L47" s="0">
-        <x:v>11</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L47" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M47" s="0">
         <x:v>11</x:v>
       </x:c>
       <x:c r="N47" s="0">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="O47" s="0">
         <x:v>248.65</x:v>
       </x:c>
-      <x:c r="O47" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="48" spans="1:18">
-      <x:c r="A48" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P47" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:19">
       <x:c r="B48" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C48" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C48" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D48" s="2">
         <x:v>44973</x:v>
       </x:c>
-      <x:c r="E48" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F48" s="0" t="s">
-        <x:v>26</x:v>
+      <x:c r="F48" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G48" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H48" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I48" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J48" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K48" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L48" s="0">
-        <x:v>10</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L48" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M48" s="0">
         <x:v>10</x:v>
       </x:c>
       <x:c r="N48" s="0">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="O48" s="0">
         <x:v>258.65</x:v>
       </x:c>
-      <x:c r="O48" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="49" spans="1:18">
-      <x:c r="A49" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P48" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:19">
       <x:c r="B49" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="C49" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C49" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D49" s="2">
         <x:v>44974</x:v>
       </x:c>
-      <x:c r="E49" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F49" s="0" t="s">
-        <x:v>26</x:v>
+      <x:c r="F49" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G49" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H49" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I49" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J49" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K49" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L49" s="0">
-        <x:v>9</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L49" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M49" s="0">
         <x:v>9</x:v>
       </x:c>
       <x:c r="N49" s="0">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="O49" s="0">
         <x:v>267.65</x:v>
       </x:c>
-      <x:c r="O49" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="50" spans="1:18">
-      <x:c r="A50" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P49" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:19">
       <x:c r="B50" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C50" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C50" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D50" s="2">
         <x:v>44975</x:v>
       </x:c>
-      <x:c r="E50" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F50" s="0" t="s">
-        <x:v>22</x:v>
+      <x:c r="F50" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G50" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H50" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I50" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J50" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K50" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L50" s="0">
-        <x:v>0</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L50" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M50" s="0">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N50" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O50" s="0">
         <x:v>267.65</x:v>
       </x:c>
-      <x:c r="O50" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="51" spans="1:18">
-      <x:c r="A51" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P50" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:19">
       <x:c r="B51" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="C51" s="2">
+      <x:c r="C51" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D51" s="2">
         <x:v>44976</x:v>
       </x:c>
-      <x:c r="E51" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F51" s="0" t="s">
-        <x:v>22</x:v>
+      <x:c r="F51" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G51" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H51" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I51" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J51" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K51" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L51" s="0">
-        <x:v>0</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L51" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M51" s="0">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N51" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O51" s="0">
         <x:v>267.65</x:v>
       </x:c>
-      <x:c r="O51" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="52" spans="1:18">
-      <x:c r="A52" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P51" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:19">
       <x:c r="B52" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C52" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C52" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D52" s="2">
         <x:v>44977</x:v>
       </x:c>
-      <x:c r="E52" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F52" s="0" t="s">
-        <x:v>20</x:v>
+      <x:c r="F52" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G52" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H52" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I52" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J52" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K52" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L52" s="0">
-        <x:v>9</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L52" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M52" s="0">
         <x:v>9</x:v>
       </x:c>
       <x:c r="N52" s="0">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="O52" s="0">
         <x:v>276.65</x:v>
       </x:c>
-      <x:c r="O52" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="53" spans="1:18">
-      <x:c r="A53" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P52" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:19">
       <x:c r="B53" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C53" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C53" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D53" s="2">
         <x:v>44978</x:v>
       </x:c>
-      <x:c r="E53" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F53" s="0" t="s">
-        <x:v>66</x:v>
+      <x:c r="F53" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G53" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="H53" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I53" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J53" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K53" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L53" s="0">
-        <x:v>8</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L53" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M53" s="0">
         <x:v>8</x:v>
       </x:c>
       <x:c r="N53" s="0">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="O53" s="0">
         <x:v>284.65</x:v>
       </x:c>
-      <x:c r="O53" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="54" spans="1:18">
-      <x:c r="A54" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P53" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:19">
       <x:c r="B54" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C54" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D54" s="2">
+        <x:v>44979</x:v>
+      </x:c>
+      <x:c r="F54" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G54" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H54" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="I54" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="C54" s="2">
-        <x:v>44979</x:v>
-      </x:c>
-      <x:c r="E54" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F54" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G54" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="H54" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="I54" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
       <x:c r="J54" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K54" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L54" s="0">
-        <x:v>9</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L54" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M54" s="0">
         <x:v>9</x:v>
       </x:c>
       <x:c r="N54" s="0">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="O54" s="0">
         <x:v>293.65</x:v>
       </x:c>
-      <x:c r="O54" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="55" spans="1:18">
-      <x:c r="A55" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P54" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:19">
       <x:c r="B55" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C55" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C55" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D55" s="2">
         <x:v>44980</x:v>
       </x:c>
-      <x:c r="E55" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F55" s="0" t="s">
-        <x:v>20</x:v>
+      <x:c r="F55" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G55" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H55" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I55" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J55" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K55" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L55" s="0">
-        <x:v>9.42</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L55" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M55" s="0">
         <x:v>9.42</x:v>
       </x:c>
       <x:c r="N55" s="0">
+        <x:v>9.42</x:v>
+      </x:c>
+      <x:c r="O55" s="0">
         <x:v>303.07</x:v>
       </x:c>
-      <x:c r="O55" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="56" spans="1:18">
-      <x:c r="A56" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P55" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:19">
       <x:c r="B56" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="C56" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C56" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D56" s="2">
         <x:v>44981</x:v>
       </x:c>
-      <x:c r="E56" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F56" s="0" t="s">
-        <x:v>67</x:v>
+      <x:c r="F56" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G56" s="0" t="s">
         <x:v>68</x:v>
       </x:c>
       <x:c r="H56" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="I56" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J56" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K56" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L56" s="0">
-        <x:v>7.83</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L56" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M56" s="0">
         <x:v>7.83</x:v>
       </x:c>
       <x:c r="N56" s="0">
+        <x:v>7.83</x:v>
+      </x:c>
+      <x:c r="O56" s="0">
         <x:v>310.9</x:v>
       </x:c>
-      <x:c r="O56" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="57" spans="1:18">
-      <x:c r="A57" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P56" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:19">
       <x:c r="B57" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C57" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C57" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D57" s="2">
         <x:v>44982</x:v>
       </x:c>
-      <x:c r="E57" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F57" s="0" t="s">
-        <x:v>49</x:v>
+      <x:c r="F57" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G57" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H57" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I57" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J57" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K57" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L57" s="0">
-        <x:v>0.83</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L57" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M57" s="0">
         <x:v>0.83</x:v>
       </x:c>
       <x:c r="N57" s="0">
+        <x:v>0.83</x:v>
+      </x:c>
+      <x:c r="O57" s="0">
         <x:v>311.73</x:v>
       </x:c>
-      <x:c r="O57" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="58" spans="1:18">
-      <x:c r="A58" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P57" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:19">
       <x:c r="B58" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="C58" s="2">
+      <x:c r="C58" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D58" s="2">
         <x:v>44983</x:v>
       </x:c>
-      <x:c r="E58" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F58" s="0" t="s">
-        <x:v>22</x:v>
+      <x:c r="F58" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G58" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H58" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I58" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J58" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K58" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L58" s="0">
-        <x:v>0</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L58" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M58" s="0">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N58" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O58" s="0">
         <x:v>311.73</x:v>
       </x:c>
-      <x:c r="O58" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="59" spans="1:18">
-      <x:c r="A59" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P58" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:19">
       <x:c r="B59" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C59" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C59" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D59" s="2">
         <x:v>44984</x:v>
       </x:c>
-      <x:c r="E59" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F59" s="0" t="s">
-        <x:v>20</x:v>
+      <x:c r="F59" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G59" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H59" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I59" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J59" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K59" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L59" s="0">
-        <x:v>9.25</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L59" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M59" s="0">
         <x:v>9.25</x:v>
       </x:c>
       <x:c r="N59" s="0">
+        <x:v>9.25</x:v>
+      </x:c>
+      <x:c r="O59" s="0">
         <x:v>320.98</x:v>
       </x:c>
-      <x:c r="O59" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="60" spans="1:18">
-      <x:c r="A60" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P59" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:19">
       <x:c r="B60" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C60" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C60" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D60" s="2">
         <x:v>44985</x:v>
       </x:c>
-      <x:c r="E60" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F60" s="0" t="s">
-        <x:v>20</x:v>
+      <x:c r="F60" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G60" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H60" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I60" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J60" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K60" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L60" s="0">
-        <x:v>9.5</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L60" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M60" s="0">
         <x:v>9.5</x:v>
       </x:c>
       <x:c r="N60" s="0">
+        <x:v>9.5</x:v>
+      </x:c>
+      <x:c r="O60" s="0">
         <x:v>170.15</x:v>
       </x:c>
-      <x:c r="O60" s="0">
+      <x:c r="P60" s="0">
         <x:v>160.33</x:v>
       </x:c>
     </x:row>
-    <x:row r="61" spans="1:18">
-      <x:c r="A61" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+    <x:row r="61" spans="1:19">
       <x:c r="B61" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="C61" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C61" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D61" s="2">
         <x:v>44986</x:v>
       </x:c>
-      <x:c r="E61" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F61" s="0" t="s">
-        <x:v>26</x:v>
+      <x:c r="F61" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G61" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H61" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I61" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="J61" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K61" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L61" s="0">
-        <x:v>11</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L61" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M61" s="0">
         <x:v>11</x:v>
       </x:c>
       <x:c r="N61" s="0">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="O61" s="0">
         <x:v>181.15</x:v>
       </x:c>
-      <x:c r="O61" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="62" spans="1:18">
-      <x:c r="A62" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P61" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:19">
       <x:c r="B62" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C62" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C62" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D62" s="2">
         <x:v>44987</x:v>
       </x:c>
-      <x:c r="E62" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F62" s="0" t="s">
+      <x:c r="F62" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G62" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="H62" s="0" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="G62" s="0" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="H62" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
       <x:c r="I62" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J62" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K62" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L62" s="0">
-        <x:v>11.5</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L62" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M62" s="0">
         <x:v>11.5</x:v>
       </x:c>
       <x:c r="N62" s="0">
+        <x:v>11.5</x:v>
+      </x:c>
+      <x:c r="O62" s="0">
         <x:v>192.65</x:v>
       </x:c>
-      <x:c r="O62" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="63" spans="1:18">
-      <x:c r="A63" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P62" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:19">
       <x:c r="B63" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="C63" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C63" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D63" s="2">
         <x:v>44988</x:v>
       </x:c>
-      <x:c r="E63" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F63" s="0" t="s">
-        <x:v>20</x:v>
+      <x:c r="F63" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G63" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H63" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="I63" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J63" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K63" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L63" s="0">
-        <x:v>6.5</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L63" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M63" s="0">
         <x:v>6.5</x:v>
       </x:c>
       <x:c r="N63" s="0">
+        <x:v>6.5</x:v>
+      </x:c>
+      <x:c r="O63" s="0">
         <x:v>199.15</x:v>
       </x:c>
-      <x:c r="O63" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="64" spans="1:18">
-      <x:c r="A64" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P63" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:19">
       <x:c r="B64" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C64" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C64" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D64" s="2">
         <x:v>44989</x:v>
       </x:c>
-      <x:c r="E64" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F64" s="0" t="s">
-        <x:v>20</x:v>
+      <x:c r="F64" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G64" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H64" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I64" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="J64" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K64" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L64" s="0">
-        <x:v>11.25</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L64" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M64" s="0">
         <x:v>11.25</x:v>
       </x:c>
       <x:c r="N64" s="0">
+        <x:v>11.25</x:v>
+      </x:c>
+      <x:c r="O64" s="0">
         <x:v>210.4</x:v>
       </x:c>
-      <x:c r="O64" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="65" spans="1:18">
-      <x:c r="A65" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P64" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:19">
       <x:c r="B65" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="C65" s="2">
+      <x:c r="C65" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D65" s="2">
         <x:v>44990</x:v>
       </x:c>
-      <x:c r="E65" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F65" s="0" t="s">
-        <x:v>26</x:v>
+      <x:c r="F65" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G65" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H65" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I65" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J65" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K65" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L65" s="0">
-        <x:v>4.75</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L65" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M65" s="0">
         <x:v>4.75</x:v>
       </x:c>
       <x:c r="N65" s="0">
+        <x:v>4.75</x:v>
+      </x:c>
+      <x:c r="O65" s="0">
         <x:v>215.15</x:v>
       </x:c>
-      <x:c r="O65" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="66" spans="1:18">
-      <x:c r="A66" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P65" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:19">
       <x:c r="B66" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C66" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C66" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D66" s="2">
         <x:v>44991</x:v>
       </x:c>
-      <x:c r="E66" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F66" s="0" t="s">
-        <x:v>26</x:v>
+      <x:c r="F66" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G66" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H66" s="0" t="s">
         <x:v>73</x:v>
       </x:c>
       <x:c r="I66" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="J66" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K66" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L66" s="0">
-        <x:v>12.75</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L66" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M66" s="0">
         <x:v>12.75</x:v>
       </x:c>
       <x:c r="N66" s="0">
+        <x:v>12.75</x:v>
+      </x:c>
+      <x:c r="O66" s="0">
         <x:v>227.9</x:v>
       </x:c>
-      <x:c r="O66" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="67" spans="1:18">
-      <x:c r="A67" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P66" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:19">
       <x:c r="B67" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C67" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C67" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D67" s="2">
         <x:v>44992</x:v>
       </x:c>
-      <x:c r="E67" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F67" s="0" t="s">
-        <x:v>74</x:v>
+      <x:c r="F67" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G67" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H67" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I67" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="J67" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K67" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L67" s="0">
-        <x:v>10.08</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L67" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M67" s="0">
         <x:v>10.08</x:v>
       </x:c>
       <x:c r="N67" s="0">
+        <x:v>10.08</x:v>
+      </x:c>
+      <x:c r="O67" s="0">
         <x:v>237.98</x:v>
       </x:c>
-      <x:c r="O67" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="68" spans="1:18">
-      <x:c r="A68" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P67" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:19">
       <x:c r="B68" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C68" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D68" s="2">
+        <x:v>44993</x:v>
+      </x:c>
+      <x:c r="F68" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G68" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="H68" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="I68" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="C68" s="2">
-        <x:v>44993</x:v>
-      </x:c>
-      <x:c r="E68" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F68" s="0" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="G68" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="H68" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="I68" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
       <x:c r="J68" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K68" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L68" s="0">
-        <x:v>11.5</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L68" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M68" s="0">
         <x:v>11.5</x:v>
       </x:c>
       <x:c r="N68" s="0">
+        <x:v>11.5</x:v>
+      </x:c>
+      <x:c r="O68" s="0">
         <x:v>249.48</x:v>
       </x:c>
-      <x:c r="O68" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="69" spans="1:18">
-      <x:c r="A69" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P68" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:19">
       <x:c r="B69" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C69" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C69" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D69" s="2">
         <x:v>44994</x:v>
       </x:c>
-      <x:c r="E69" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F69" s="0" t="s">
-        <x:v>26</x:v>
+      <x:c r="F69" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G69" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H69" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="I69" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J69" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K69" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L69" s="0">
-        <x:v>9.83</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L69" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M69" s="0">
         <x:v>9.83</x:v>
       </x:c>
       <x:c r="N69" s="0">
+        <x:v>9.83</x:v>
+      </x:c>
+      <x:c r="O69" s="0">
         <x:v>259.31</x:v>
       </x:c>
-      <x:c r="O69" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="70" spans="1:18">
-      <x:c r="A70" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P69" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:19">
       <x:c r="B70" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="C70" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C70" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D70" s="2">
         <x:v>44995</x:v>
       </x:c>
-      <x:c r="E70" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F70" s="0" t="s">
-        <x:v>66</x:v>
+      <x:c r="F70" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G70" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="H70" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="I70" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J70" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K70" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L70" s="0">
-        <x:v>6.83</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L70" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M70" s="0">
         <x:v>6.83</x:v>
       </x:c>
       <x:c r="N70" s="0">
+        <x:v>6.83</x:v>
+      </x:c>
+      <x:c r="O70" s="0">
         <x:v>266.14</x:v>
       </x:c>
-      <x:c r="O70" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="71" spans="1:18">
-      <x:c r="A71" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P70" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:19">
       <x:c r="B71" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C71" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C71" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D71" s="2">
         <x:v>44996</x:v>
       </x:c>
-      <x:c r="E71" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F71" s="0" t="s">
-        <x:v>22</x:v>
+      <x:c r="F71" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G71" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H71" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I71" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J71" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K71" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L71" s="0">
-        <x:v>0</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L71" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M71" s="0">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N71" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O71" s="0">
         <x:v>266.14</x:v>
       </x:c>
-      <x:c r="O71" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="72" spans="1:18">
-      <x:c r="A72" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P71" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:19">
       <x:c r="B72" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="C72" s="2">
+      <x:c r="C72" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D72" s="2">
         <x:v>44997</x:v>
       </x:c>
-      <x:c r="E72" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F72" s="0" t="s">
-        <x:v>22</x:v>
+      <x:c r="F72" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G72" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H72" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I72" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J72" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K72" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L72" s="0">
-        <x:v>0</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L72" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M72" s="0">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N72" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O72" s="0">
         <x:v>266.14</x:v>
       </x:c>
-      <x:c r="O72" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="73" spans="1:18">
-      <x:c r="A73" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P72" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:19">
       <x:c r="B73" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C73" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C73" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D73" s="2">
         <x:v>44998</x:v>
       </x:c>
-      <x:c r="E73" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F73" s="0" t="s">
-        <x:v>20</x:v>
+      <x:c r="F73" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G73" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H73" s="0" t="s">
         <x:v>78</x:v>
       </x:c>
       <x:c r="I73" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="J73" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K73" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L73" s="0">
-        <x:v>10</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L73" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M73" s="0">
         <x:v>10</x:v>
       </x:c>
       <x:c r="N73" s="0">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="O73" s="0">
         <x:v>276.14</x:v>
       </x:c>
-      <x:c r="O73" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="74" spans="1:18">
-      <x:c r="A74" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P73" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:19">
       <x:c r="B74" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C74" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C74" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D74" s="2">
         <x:v>44999</x:v>
       </x:c>
-      <x:c r="E74" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F74" s="0" t="s">
-        <x:v>22</x:v>
+      <x:c r="F74" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G74" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H74" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I74" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J74" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K74" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L74" s="0">
-        <x:v>0</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L74" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M74" s="0">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N74" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O74" s="0">
         <x:v>276.14</x:v>
       </x:c>
-      <x:c r="O74" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="75" spans="1:18">
-      <x:c r="A75" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P74" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:19">
       <x:c r="B75" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="C75" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C75" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D75" s="2">
         <x:v>45000</x:v>
       </x:c>
-      <x:c r="E75" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F75" s="0" t="s">
-        <x:v>79</x:v>
+      <x:c r="F75" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G75" s="0" t="s">
         <x:v>80</x:v>
       </x:c>
       <x:c r="H75" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="I75" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J75" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K75" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L75" s="0">
-        <x:v>10.67</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L75" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M75" s="0">
         <x:v>10.67</x:v>
       </x:c>
       <x:c r="N75" s="0">
+        <x:v>10.67</x:v>
+      </x:c>
+      <x:c r="O75" s="0">
         <x:v>286.81</x:v>
       </x:c>
-      <x:c r="O75" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="76" spans="1:18">
-      <x:c r="A76" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P75" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:19">
       <x:c r="B76" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C76" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C76" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D76" s="2">
         <x:v>45001</x:v>
       </x:c>
-      <x:c r="E76" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F76" s="0" t="s">
-        <x:v>22</x:v>
+      <x:c r="F76" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G76" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H76" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I76" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J76" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K76" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L76" s="0">
-        <x:v>0</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L76" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M76" s="0">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N76" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O76" s="0">
         <x:v>286.81</x:v>
       </x:c>
-      <x:c r="O76" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="77" spans="1:18">
-      <x:c r="A77" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P76" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:19">
       <x:c r="B77" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="C77" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C77" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D77" s="2">
         <x:v>45002</x:v>
       </x:c>
-      <x:c r="E77" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F77" s="0" t="s">
-        <x:v>20</x:v>
+      <x:c r="F77" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G77" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H77" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I77" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="J77" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K77" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L77" s="0">
-        <x:v>7.5</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L77" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M77" s="0">
         <x:v>7.5</x:v>
       </x:c>
       <x:c r="N77" s="0">
+        <x:v>7.5</x:v>
+      </x:c>
+      <x:c r="O77" s="0">
         <x:v>294.31</x:v>
       </x:c>
-      <x:c r="O77" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="78" spans="1:18">
-      <x:c r="A78" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P77" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:19">
       <x:c r="B78" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C78" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C78" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D78" s="2">
         <x:v>45003</x:v>
       </x:c>
-      <x:c r="E78" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F78" s="0" t="s">
-        <x:v>22</x:v>
+      <x:c r="F78" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G78" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H78" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I78" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J78" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K78" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L78" s="0">
-        <x:v>0</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L78" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M78" s="0">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N78" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O78" s="0">
         <x:v>294.31</x:v>
       </x:c>
-      <x:c r="O78" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="79" spans="1:18">
-      <x:c r="A79" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P78" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:19">
       <x:c r="B79" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="C79" s="2">
+      <x:c r="C79" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D79" s="2">
         <x:v>45004</x:v>
       </x:c>
-      <x:c r="E79" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F79" s="0" t="s">
-        <x:v>22</x:v>
+      <x:c r="F79" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G79" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H79" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I79" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J79" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K79" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L79" s="0">
-        <x:v>0</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L79" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M79" s="0">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N79" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O79" s="0">
         <x:v>294.31</x:v>
       </x:c>
-      <x:c r="O79" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="80" spans="1:18">
-      <x:c r="A80" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P79" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:19">
       <x:c r="B80" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C80" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C80" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D80" s="2">
         <x:v>45005</x:v>
       </x:c>
-      <x:c r="E80" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F80" s="0" t="s">
-        <x:v>66</x:v>
+      <x:c r="F80" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G80" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="H80" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="I80" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J80" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K80" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L80" s="0">
-        <x:v>6.5</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L80" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M80" s="0">
         <x:v>6.5</x:v>
       </x:c>
       <x:c r="N80" s="0">
+        <x:v>6.5</x:v>
+      </x:c>
+      <x:c r="O80" s="0">
         <x:v>300.81</x:v>
       </x:c>
-      <x:c r="O80" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="81" spans="1:18">
-      <x:c r="A81" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P80" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:19">
       <x:c r="B81" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C81" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C81" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D81" s="2">
         <x:v>45006</x:v>
       </x:c>
-      <x:c r="E81" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F81" s="0" t="s">
-        <x:v>82</x:v>
+      <x:c r="F81" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G81" s="0" t="s">
         <x:v>83</x:v>
       </x:c>
       <x:c r="H81" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="I81" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J81" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K81" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L81" s="0">
-        <x:v>8.17</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L81" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M81" s="0">
         <x:v>8.17</x:v>
       </x:c>
       <x:c r="N81" s="0">
+        <x:v>8.17</x:v>
+      </x:c>
+      <x:c r="O81" s="0">
         <x:v>308.98</x:v>
       </x:c>
-      <x:c r="O81" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="82" spans="1:18">
-      <x:c r="A82" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P81" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:19">
       <x:c r="B82" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="C82" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C82" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D82" s="2">
         <x:v>45007</x:v>
       </x:c>
-      <x:c r="E82" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F82" s="0" t="s">
-        <x:v>26</x:v>
+      <x:c r="F82" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G82" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H82" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I82" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="J82" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K82" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L82" s="0">
-        <x:v>10.5</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L82" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M82" s="0">
         <x:v>10.5</x:v>
       </x:c>
       <x:c r="N82" s="0">
+        <x:v>10.5</x:v>
+      </x:c>
+      <x:c r="O82" s="0">
         <x:v>319.48</x:v>
       </x:c>
-      <x:c r="O82" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="83" spans="1:18">
-      <x:c r="A83" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P82" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:19">
       <x:c r="B83" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C83" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C83" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D83" s="2">
         <x:v>45008</x:v>
       </x:c>
-      <x:c r="E83" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F83" s="0" t="s">
-        <x:v>66</x:v>
+      <x:c r="F83" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G83" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="H83" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I83" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J83" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K83" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L83" s="0">
-        <x:v>8</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L83" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M83" s="0">
         <x:v>8</x:v>
       </x:c>
       <x:c r="N83" s="0">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="O83" s="0">
         <x:v>327.48</x:v>
       </x:c>
-      <x:c r="O83" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="84" spans="1:18">
-      <x:c r="A84" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P83" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:19">
       <x:c r="B84" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="C84" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C84" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D84" s="2">
         <x:v>45009</x:v>
       </x:c>
-      <x:c r="E84" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F84" s="0" t="s">
+      <x:c r="F84" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G84" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="H84" s="0" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="G84" s="0" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="H84" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
       <x:c r="I84" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J84" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K84" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L84" s="0">
-        <x:v>8</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L84" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M84" s="0">
         <x:v>8</x:v>
       </x:c>
       <x:c r="N84" s="0">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="O84" s="0">
         <x:v>335.48</x:v>
       </x:c>
-      <x:c r="O84" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="85" spans="1:18">
-      <x:c r="A85" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P84" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:19">
       <x:c r="B85" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C85" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C85" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D85" s="2">
         <x:v>45010</x:v>
       </x:c>
-      <x:c r="E85" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F85" s="0" t="s">
-        <x:v>20</x:v>
+      <x:c r="F85" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G85" s="0" t="s">
         <x:v>21</x:v>
@@ -4503,2097 +4506,2100 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="I85" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J85" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K85" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L85" s="0">
-        <x:v>3</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L85" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M85" s="0">
         <x:v>3</x:v>
       </x:c>
       <x:c r="N85" s="0">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="O85" s="0">
         <x:v>338.48</x:v>
       </x:c>
-      <x:c r="O85" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="86" spans="1:18">
-      <x:c r="A86" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P85" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="1:19">
       <x:c r="B86" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="C86" s="2">
+      <x:c r="C86" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D86" s="2">
         <x:v>45011</x:v>
       </x:c>
-      <x:c r="E86" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F86" s="0" t="s">
-        <x:v>20</x:v>
+      <x:c r="F86" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G86" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H86" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="I86" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J86" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="K86" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L86" s="0">
-        <x:v>4.75</x:v>
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="L86" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M86" s="0">
         <x:v>4.75</x:v>
       </x:c>
       <x:c r="N86" s="0">
+        <x:v>4.75</x:v>
+      </x:c>
+      <x:c r="O86" s="0">
         <x:v>343.23</x:v>
       </x:c>
-      <x:c r="O86" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="87" spans="1:18">
-      <x:c r="A87" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P86" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:19">
       <x:c r="B87" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C87" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C87" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D87" s="2">
         <x:v>45012</x:v>
       </x:c>
-      <x:c r="E87" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F87" s="0" t="s">
-        <x:v>87</x:v>
+      <x:c r="F87" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G87" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H87" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I87" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="J87" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K87" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L87" s="0">
-        <x:v>10.25</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L87" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M87" s="0">
         <x:v>10.25</x:v>
       </x:c>
       <x:c r="N87" s="0">
+        <x:v>10.25</x:v>
+      </x:c>
+      <x:c r="O87" s="0">
         <x:v>353.48</x:v>
       </x:c>
-      <x:c r="O87" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="88" spans="1:18">
-      <x:c r="A88" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P87" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="1:19">
       <x:c r="B88" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C88" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C88" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D88" s="2">
         <x:v>45013</x:v>
       </x:c>
-      <x:c r="E88" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F88" s="0" t="s">
-        <x:v>88</x:v>
+      <x:c r="F88" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G88" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H88" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I88" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="J88" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K88" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L88" s="0">
-        <x:v>9.17</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L88" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M88" s="0">
         <x:v>9.17</x:v>
       </x:c>
       <x:c r="N88" s="0">
+        <x:v>9.17</x:v>
+      </x:c>
+      <x:c r="O88" s="0">
         <x:v>362.65</x:v>
       </x:c>
-      <x:c r="O88" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="89" spans="1:18">
-      <x:c r="A89" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P88" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" spans="1:19">
       <x:c r="B89" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C89" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D89" s="2">
+        <x:v>45014</x:v>
+      </x:c>
+      <x:c r="F89" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G89" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="H89" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="I89" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="C89" s="2">
-        <x:v>45014</x:v>
-      </x:c>
-      <x:c r="E89" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F89" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="G89" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="H89" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="I89" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
       <x:c r="J89" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K89" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L89" s="0">
-        <x:v>8</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L89" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M89" s="0">
         <x:v>8</x:v>
       </x:c>
       <x:c r="N89" s="0">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="O89" s="0">
         <x:v>370.65</x:v>
       </x:c>
-      <x:c r="O89" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="90" spans="1:18">
-      <x:c r="A90" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P89" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="1:19">
       <x:c r="B90" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C90" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C90" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D90" s="2">
         <x:v>45015</x:v>
       </x:c>
-      <x:c r="E90" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F90" s="0" t="s">
-        <x:v>55</x:v>
+      <x:c r="F90" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G90" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H90" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I90" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J90" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K90" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L90" s="0">
-        <x:v>10.25</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L90" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M90" s="0">
         <x:v>10.25</x:v>
       </x:c>
       <x:c r="N90" s="0">
+        <x:v>10.25</x:v>
+      </x:c>
+      <x:c r="O90" s="0">
         <x:v>380.9</x:v>
       </x:c>
-      <x:c r="O90" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="91" spans="1:18">
-      <x:c r="A91" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P90" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:19">
       <x:c r="B91" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="C91" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C91" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D91" s="2">
         <x:v>45016</x:v>
       </x:c>
-      <x:c r="E91" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F91" s="0" t="s">
-        <x:v>66</x:v>
+      <x:c r="F91" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G91" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="H91" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="I91" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J91" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K91" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L91" s="0">
-        <x:v>2.5</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L91" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M91" s="0">
         <x:v>2.5</x:v>
       </x:c>
       <x:c r="N91" s="0">
+        <x:v>2.5</x:v>
+      </x:c>
+      <x:c r="O91" s="0">
         <x:v>223.07</x:v>
       </x:c>
-      <x:c r="O91" s="0">
+      <x:c r="P91" s="0">
         <x:v>160.33</x:v>
       </x:c>
     </x:row>
-    <x:row r="92" spans="1:18">
-      <x:c r="A92" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+    <x:row r="92" spans="1:19">
       <x:c r="B92" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C92" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C92" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D92" s="2">
         <x:v>45017</x:v>
       </x:c>
-      <x:c r="E92" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F92" s="0" t="s">
-        <x:v>22</x:v>
+      <x:c r="F92" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G92" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H92" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I92" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J92" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K92" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L92" s="0">
-        <x:v>0</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L92" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M92" s="0">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N92" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O92" s="0">
         <x:v>223.07</x:v>
       </x:c>
-      <x:c r="O92" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="93" spans="1:18">
-      <x:c r="A93" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P92" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93" spans="1:19">
       <x:c r="B93" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="C93" s="2">
+      <x:c r="C93" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D93" s="2">
         <x:v>45018</x:v>
       </x:c>
-      <x:c r="E93" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F93" s="0" t="s">
-        <x:v>22</x:v>
+      <x:c r="F93" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G93" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H93" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I93" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J93" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K93" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L93" s="0">
-        <x:v>0</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L93" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M93" s="0">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N93" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O93" s="0">
         <x:v>223.07</x:v>
       </x:c>
-      <x:c r="O93" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="94" spans="1:18">
-      <x:c r="A94" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P93" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94" spans="1:19">
       <x:c r="B94" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C94" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D94" s="2">
+        <x:v>45019</x:v>
+      </x:c>
+      <x:c r="F94" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G94" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H94" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C94" s="2">
-        <x:v>45019</x:v>
-      </x:c>
-      <x:c r="E94" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F94" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G94" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="H94" s="0" t="s">
+      <x:c r="I94" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="J94" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="I94" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="J94" s="0" t="s">
-        <x:v>89</x:v>
-      </x:c>
       <x:c r="K94" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L94" s="0">
-        <x:v>13.75</x:v>
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="L94" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M94" s="0">
         <x:v>13.75</x:v>
       </x:c>
       <x:c r="N94" s="0">
+        <x:v>13.75</x:v>
+      </x:c>
+      <x:c r="O94" s="0">
         <x:v>236.82</x:v>
       </x:c>
-      <x:c r="O94" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="95" spans="1:18">
-      <x:c r="A95" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P94" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95" spans="1:19">
       <x:c r="B95" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C95" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C95" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D95" s="2">
         <x:v>45020</x:v>
       </x:c>
-      <x:c r="E95" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F95" s="0" t="s">
-        <x:v>90</x:v>
+      <x:c r="F95" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G95" s="0" t="s">
         <x:v>91</x:v>
       </x:c>
       <x:c r="H95" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="I95" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J95" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K95" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L95" s="0">
-        <x:v>16</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L95" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M95" s="0">
         <x:v>16</x:v>
       </x:c>
       <x:c r="N95" s="0">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="O95" s="0">
         <x:v>252.82</x:v>
       </x:c>
-      <x:c r="O95" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="96" spans="1:18">
-      <x:c r="A96" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P95" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="1:19">
       <x:c r="B96" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="C96" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C96" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D96" s="2">
         <x:v>45021</x:v>
       </x:c>
-      <x:c r="E96" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F96" s="0" t="s">
-        <x:v>90</x:v>
+      <x:c r="F96" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G96" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="H96" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I96" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J96" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="K96" s="0" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="J96" s="0" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="K96" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L96" s="0">
-        <x:v>14.5</x:v>
+      <x:c r="L96" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M96" s="0">
         <x:v>14.5</x:v>
       </x:c>
       <x:c r="N96" s="0">
+        <x:v>14.5</x:v>
+      </x:c>
+      <x:c r="O96" s="0">
         <x:v>267.32</x:v>
       </x:c>
-      <x:c r="O96" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="97" spans="1:18">
-      <x:c r="A97" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P96" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97" spans="1:19">
       <x:c r="B97" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C97" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C97" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D97" s="2">
         <x:v>45022</x:v>
       </x:c>
-      <x:c r="E97" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F97" s="0" t="s">
-        <x:v>20</x:v>
+      <x:c r="F97" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G97" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H97" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="I97" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="J97" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K97" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L97" s="0">
-        <x:v>15.58</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L97" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M97" s="0">
         <x:v>15.58</x:v>
       </x:c>
       <x:c r="N97" s="0">
+        <x:v>15.58</x:v>
+      </x:c>
+      <x:c r="O97" s="0">
         <x:v>282.9</x:v>
       </x:c>
-      <x:c r="O97" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="98" spans="1:18">
-      <x:c r="A98" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P97" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98" spans="1:19">
       <x:c r="B98" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="C98" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C98" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D98" s="2">
         <x:v>45023</x:v>
       </x:c>
-      <x:c r="E98" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F98" s="0" t="s">
-        <x:v>30</x:v>
+      <x:c r="F98" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G98" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H98" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="I98" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="J98" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="K98" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L98" s="0">
-        <x:v>8.67</x:v>
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="L98" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M98" s="0">
         <x:v>8.67</x:v>
       </x:c>
       <x:c r="N98" s="0">
+        <x:v>8.67</x:v>
+      </x:c>
+      <x:c r="O98" s="0">
         <x:v>291.57</x:v>
       </x:c>
-      <x:c r="O98" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="99" spans="1:18">
-      <x:c r="A99" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P98" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99" spans="1:19">
       <x:c r="B99" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C99" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C99" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D99" s="2">
         <x:v>45024</x:v>
       </x:c>
-      <x:c r="E99" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F99" s="0" t="s">
-        <x:v>22</x:v>
+      <x:c r="F99" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G99" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H99" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I99" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J99" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="K99" s="0" t="s">
         <x:v>96</x:v>
       </x:c>
-      <x:c r="J99" s="0" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="K99" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L99" s="0">
-        <x:v>16.58</x:v>
+      <x:c r="L99" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M99" s="0">
         <x:v>16.58</x:v>
       </x:c>
       <x:c r="N99" s="0">
+        <x:v>16.58</x:v>
+      </x:c>
+      <x:c r="O99" s="0">
         <x:v>308.15</x:v>
       </x:c>
-      <x:c r="O99" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="100" spans="1:18">
-      <x:c r="A100" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P99" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100" spans="1:19">
       <x:c r="B100" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="C100" s="2">
+      <x:c r="C100" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D100" s="2">
         <x:v>45025</x:v>
       </x:c>
-      <x:c r="E100" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F100" s="0" t="s">
-        <x:v>97</x:v>
+      <x:c r="F100" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G100" s="0" t="s">
         <x:v>98</x:v>
       </x:c>
       <x:c r="H100" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="I100" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J100" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K100" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L100" s="0">
-        <x:v>13.75</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L100" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M100" s="0">
         <x:v>13.75</x:v>
       </x:c>
       <x:c r="N100" s="0">
+        <x:v>13.75</x:v>
+      </x:c>
+      <x:c r="O100" s="0">
         <x:v>321.9</x:v>
       </x:c>
-      <x:c r="O100" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="101" spans="1:18">
-      <x:c r="A101" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P100" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101" spans="1:19">
       <x:c r="B101" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C101" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C101" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D101" s="2">
         <x:v>45026</x:v>
       </x:c>
-      <x:c r="E101" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F101" s="0" t="s">
-        <x:v>22</x:v>
+      <x:c r="F101" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G101" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H101" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I101" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J101" s="0" t="s">
         <x:v>101</x:v>
       </x:c>
       <x:c r="K101" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L101" s="0">
-        <x:v>13.58</x:v>
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="L101" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M101" s="0">
         <x:v>13.58</x:v>
       </x:c>
       <x:c r="N101" s="0">
+        <x:v>13.58</x:v>
+      </x:c>
+      <x:c r="O101" s="0">
         <x:v>335.48</x:v>
       </x:c>
-      <x:c r="O101" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="102" spans="1:18">
-      <x:c r="A102" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P101" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="102" spans="1:19">
       <x:c r="B102" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C102" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C102" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D102" s="2">
         <x:v>45027</x:v>
       </x:c>
-      <x:c r="E102" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F102" s="0" t="s">
-        <x:v>102</x:v>
+      <x:c r="F102" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G102" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="H102" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="I102" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J102" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K102" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L102" s="0">
-        <x:v>18.25</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L102" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M102" s="0">
         <x:v>18.25</x:v>
       </x:c>
       <x:c r="N102" s="0">
+        <x:v>18.25</x:v>
+      </x:c>
+      <x:c r="O102" s="0">
         <x:v>353.73</x:v>
       </x:c>
-      <x:c r="O102" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="103" spans="1:18">
-      <x:c r="A103" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P102" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="103" spans="1:19">
       <x:c r="B103" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="C103" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C103" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D103" s="2">
         <x:v>45028</x:v>
       </x:c>
-      <x:c r="E103" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F103" s="0" t="s">
-        <x:v>20</x:v>
+      <x:c r="F103" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G103" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H103" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="I103" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="J103" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K103" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L103" s="0">
-        <x:v>10.83</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L103" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M103" s="0">
         <x:v>10.83</x:v>
       </x:c>
       <x:c r="N103" s="0">
+        <x:v>10.83</x:v>
+      </x:c>
+      <x:c r="O103" s="0">
         <x:v>364.56</x:v>
       </x:c>
-      <x:c r="O103" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="104" spans="1:18">
-      <x:c r="A104" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P103" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="104" spans="1:19">
       <x:c r="B104" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C104" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C104" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D104" s="2">
         <x:v>45029</x:v>
       </x:c>
-      <x:c r="E104" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F104" s="0" t="s">
-        <x:v>104</x:v>
+      <x:c r="F104" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G104" s="0" t="s">
         <x:v>105</x:v>
       </x:c>
       <x:c r="H104" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="I104" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J104" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K104" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L104" s="0">
-        <x:v>9.83</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L104" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M104" s="0">
         <x:v>9.83</x:v>
       </x:c>
       <x:c r="N104" s="0">
+        <x:v>9.83</x:v>
+      </x:c>
+      <x:c r="O104" s="0">
         <x:v>374.39</x:v>
       </x:c>
-      <x:c r="O104" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="105" spans="1:18">
-      <x:c r="A105" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P104" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="105" spans="1:19">
       <x:c r="B105" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="C105" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C105" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D105" s="2">
         <x:v>45030</x:v>
       </x:c>
-      <x:c r="E105" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F105" s="0" t="s">
-        <x:v>66</x:v>
+      <x:c r="F105" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G105" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="H105" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I105" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="J105" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K105" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L105" s="0">
-        <x:v>8.83</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L105" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M105" s="0">
         <x:v>8.83</x:v>
       </x:c>
       <x:c r="N105" s="0">
+        <x:v>8.83</x:v>
+      </x:c>
+      <x:c r="O105" s="0">
         <x:v>383.22</x:v>
       </x:c>
-      <x:c r="O105" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="106" spans="1:18">
-      <x:c r="A106" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P105" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="106" spans="1:19">
       <x:c r="B106" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C106" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C106" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D106" s="2">
         <x:v>45031</x:v>
       </x:c>
-      <x:c r="E106" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F106" s="0" t="s">
-        <x:v>66</x:v>
+      <x:c r="F106" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G106" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="H106" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I106" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J106" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K106" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L106" s="0">
-        <x:v>5.25</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L106" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M106" s="0">
         <x:v>5.25</x:v>
       </x:c>
       <x:c r="N106" s="0">
+        <x:v>5.25</x:v>
+      </x:c>
+      <x:c r="O106" s="0">
         <x:v>388.47</x:v>
       </x:c>
-      <x:c r="O106" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="107" spans="1:18">
-      <x:c r="A107" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P106" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="107" spans="1:19">
       <x:c r="B107" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="C107" s="2">
+      <x:c r="C107" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D107" s="2">
         <x:v>45032</x:v>
       </x:c>
-      <x:c r="E107" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F107" s="0" t="s">
-        <x:v>84</x:v>
+      <x:c r="F107" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G107" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H107" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="I107" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="J107" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K107" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L107" s="0">
-        <x:v>6.33</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L107" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M107" s="0">
         <x:v>6.33</x:v>
       </x:c>
       <x:c r="N107" s="0">
+        <x:v>6.33</x:v>
+      </x:c>
+      <x:c r="O107" s="0">
         <x:v>394.8</x:v>
       </x:c>
-      <x:c r="O107" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="108" spans="1:18">
-      <x:c r="A108" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P107" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="108" spans="1:19">
       <x:c r="B108" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C108" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C108" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D108" s="2">
         <x:v>45033</x:v>
       </x:c>
-      <x:c r="E108" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F108" s="0" t="s">
-        <x:v>60</x:v>
+      <x:c r="F108" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G108" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H108" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="I108" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J108" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K108" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L108" s="0">
-        <x:v>16.08</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L108" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M108" s="0">
         <x:v>16.08</x:v>
       </x:c>
       <x:c r="N108" s="0">
+        <x:v>16.08</x:v>
+      </x:c>
+      <x:c r="O108" s="0">
         <x:v>410.88</x:v>
       </x:c>
-      <x:c r="O108" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="109" spans="1:18">
-      <x:c r="A109" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P108" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="109" spans="1:19">
       <x:c r="B109" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C109" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C109" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D109" s="2">
         <x:v>45034</x:v>
       </x:c>
-      <x:c r="E109" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F109" s="0" t="s">
-        <x:v>20</x:v>
+      <x:c r="F109" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G109" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H109" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I109" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="J109" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K109" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L109" s="0">
-        <x:v>12.5</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L109" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M109" s="0">
         <x:v>12.5</x:v>
       </x:c>
       <x:c r="N109" s="0">
+        <x:v>12.5</x:v>
+      </x:c>
+      <x:c r="O109" s="0">
         <x:v>423.38</x:v>
       </x:c>
-      <x:c r="O109" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="110" spans="1:18">
-      <x:c r="A110" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P109" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="110" spans="1:19">
       <x:c r="B110" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="C110" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C110" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D110" s="2">
         <x:v>45035</x:v>
       </x:c>
-      <x:c r="E110" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F110" s="0" t="s">
-        <x:v>22</x:v>
+      <x:c r="F110" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G110" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H110" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="I110" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J110" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="K110" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L110" s="0">
-        <x:v>14</x:v>
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="L110" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M110" s="0">
         <x:v>14</x:v>
       </x:c>
       <x:c r="N110" s="0">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="O110" s="0">
         <x:v>437.38</x:v>
       </x:c>
-      <x:c r="O110" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="111" spans="1:18">
-      <x:c r="A111" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P110" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="111" spans="1:19">
       <x:c r="B111" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C111" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C111" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D111" s="2">
         <x:v>45036</x:v>
       </x:c>
-      <x:c r="E111" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F111" s="0" t="s">
-        <x:v>22</x:v>
+      <x:c r="F111" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G111" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H111" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="I111" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J111" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="K111" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L111" s="0">
-        <x:v>16.25</x:v>
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="L111" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M111" s="0">
         <x:v>16.25</x:v>
       </x:c>
       <x:c r="N111" s="0">
+        <x:v>16.25</x:v>
+      </x:c>
+      <x:c r="O111" s="0">
         <x:v>453.63</x:v>
       </x:c>
-      <x:c r="O111" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="112" spans="1:18">
-      <x:c r="A112" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P111" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="112" spans="1:19">
       <x:c r="B112" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="C112" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C112" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D112" s="2">
         <x:v>45037</x:v>
       </x:c>
-      <x:c r="E112" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F112" s="0" t="s">
-        <x:v>22</x:v>
+      <x:c r="F112" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G112" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H112" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I112" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="J112" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="K112" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L112" s="0">
-        <x:v>15</x:v>
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="L112" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M112" s="0">
         <x:v>15</x:v>
       </x:c>
       <x:c r="N112" s="0">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="O112" s="0">
         <x:v>468.63</x:v>
       </x:c>
-      <x:c r="O112" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="113" spans="1:18">
-      <x:c r="A113" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P112" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="113" spans="1:19">
       <x:c r="B113" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C113" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C113" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D113" s="2">
         <x:v>45038</x:v>
       </x:c>
-      <x:c r="E113" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F113" s="0" t="s">
-        <x:v>22</x:v>
+      <x:c r="F113" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G113" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H113" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="I113" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J113" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="K113" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L113" s="0">
-        <x:v>14.5</x:v>
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="L113" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M113" s="0">
         <x:v>14.5</x:v>
       </x:c>
       <x:c r="N113" s="0">
+        <x:v>14.5</x:v>
+      </x:c>
+      <x:c r="O113" s="0">
         <x:v>483.13</x:v>
       </x:c>
-      <x:c r="O113" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="114" spans="1:18">
-      <x:c r="A114" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P113" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="114" spans="1:19">
       <x:c r="B114" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="C114" s="2">
+      <x:c r="C114" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D114" s="2">
         <x:v>45039</x:v>
       </x:c>
-      <x:c r="E114" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F114" s="0" t="s">
-        <x:v>114</x:v>
+      <x:c r="F114" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G114" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="H114" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I114" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J114" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K114" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L114" s="0">
-        <x:v>4</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L114" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M114" s="0">
         <x:v>4</x:v>
       </x:c>
       <x:c r="N114" s="0">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="O114" s="0">
         <x:v>487.13</x:v>
       </x:c>
-      <x:c r="O114" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="115" spans="1:18">
-      <x:c r="A115" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P114" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="115" spans="1:19">
       <x:c r="B115" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C115" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C115" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D115" s="2">
         <x:v>45040</x:v>
       </x:c>
-      <x:c r="E115" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F115" s="0" t="s">
-        <x:v>22</x:v>
+      <x:c r="F115" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G115" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H115" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I115" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J115" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K115" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L115" s="0">
-        <x:v>0</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L115" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M115" s="0">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N115" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O115" s="0">
         <x:v>487.13</x:v>
       </x:c>
-      <x:c r="O115" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="116" spans="1:18">
-      <x:c r="A116" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P115" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="116" spans="1:19">
       <x:c r="B116" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C116" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C116" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D116" s="2">
         <x:v>45041</x:v>
       </x:c>
-      <x:c r="E116" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F116" s="0" t="s">
-        <x:v>66</x:v>
+      <x:c r="F116" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G116" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="H116" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="I116" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="J116" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K116" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L116" s="0">
-        <x:v>10.5</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L116" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M116" s="0">
         <x:v>10.5</x:v>
       </x:c>
       <x:c r="N116" s="0">
+        <x:v>10.5</x:v>
+      </x:c>
+      <x:c r="O116" s="0">
         <x:v>497.63</x:v>
       </x:c>
-      <x:c r="O116" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="117" spans="1:18">
-      <x:c r="A117" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P116" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="117" spans="1:19">
       <x:c r="B117" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="C117" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C117" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D117" s="2">
         <x:v>45042</x:v>
       </x:c>
-      <x:c r="E117" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F117" s="0" t="s">
-        <x:v>22</x:v>
+      <x:c r="F117" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G117" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H117" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I117" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J117" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K117" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L117" s="0">
-        <x:v>0</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L117" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M117" s="0">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N117" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O117" s="0">
         <x:v>497.63</x:v>
       </x:c>
-      <x:c r="O117" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="118" spans="1:18">
-      <x:c r="A118" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P117" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="118" spans="1:19">
       <x:c r="B118" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C118" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C118" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D118" s="2">
         <x:v>45043</x:v>
       </x:c>
-      <x:c r="E118" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F118" s="0" t="s">
-        <x:v>26</x:v>
+      <x:c r="F118" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G118" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H118" s="0" t="s">
         <x:v>116</x:v>
       </x:c>
       <x:c r="I118" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="J118" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K118" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L118" s="0">
-        <x:v>16.58</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L118" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M118" s="0">
         <x:v>16.58</x:v>
       </x:c>
       <x:c r="N118" s="0">
+        <x:v>16.58</x:v>
+      </x:c>
+      <x:c r="O118" s="0">
         <x:v>514.21</x:v>
       </x:c>
-      <x:c r="O118" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="119" spans="1:18">
-      <x:c r="A119" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P118" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="119" spans="1:19">
       <x:c r="B119" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="C119" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C119" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D119" s="2">
         <x:v>45044</x:v>
       </x:c>
-      <x:c r="E119" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F119" s="0" t="s">
-        <x:v>90</x:v>
+      <x:c r="F119" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G119" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="H119" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="I119" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J119" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K119" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L119" s="0">
-        <x:v>17.5</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L119" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M119" s="0">
         <x:v>17.5</x:v>
       </x:c>
       <x:c r="N119" s="0">
+        <x:v>17.5</x:v>
+      </x:c>
+      <x:c r="O119" s="0">
         <x:v>531.71</x:v>
       </x:c>
-      <x:c r="O119" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="120" spans="1:18">
-      <x:c r="A120" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P119" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="120" spans="1:19">
       <x:c r="B120" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C120" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C120" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D120" s="2">
         <x:v>45045</x:v>
       </x:c>
-      <x:c r="E120" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F120" s="0" t="s">
-        <x:v>118</x:v>
+      <x:c r="F120" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G120" s="0" t="s">
         <x:v>119</x:v>
       </x:c>
       <x:c r="H120" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="I120" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="J120" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K120" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L120" s="0">
-        <x:v>18</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L120" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M120" s="0">
         <x:v>18</x:v>
       </x:c>
       <x:c r="N120" s="0">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="O120" s="0">
         <x:v>549.71</x:v>
       </x:c>
-      <x:c r="O120" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="121" spans="1:18">
-      <x:c r="A121" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P120" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="121" spans="1:19">
       <x:c r="B121" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="C121" s="2">
+      <x:c r="C121" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D121" s="2">
         <x:v>45046</x:v>
       </x:c>
-      <x:c r="E121" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F121" s="0" t="s">
-        <x:v>20</x:v>
+      <x:c r="F121" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G121" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H121" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="I121" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="J121" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K121" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L121" s="0">
-        <x:v>16.5</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L121" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M121" s="0">
         <x:v>16.5</x:v>
       </x:c>
       <x:c r="N121" s="0">
+        <x:v>16.5</x:v>
+      </x:c>
+      <x:c r="O121" s="0">
         <x:v>405.88</x:v>
       </x:c>
-      <x:c r="O121" s="0">
+      <x:c r="P121" s="0">
         <x:v>160.33</x:v>
       </x:c>
     </x:row>
-    <x:row r="122" spans="1:18">
-      <x:c r="A122" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+    <x:row r="122" spans="1:19">
       <x:c r="B122" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C122" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C122" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D122" s="2">
         <x:v>45047</x:v>
       </x:c>
-      <x:c r="E122" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F122" s="0" t="s">
-        <x:v>30</x:v>
+      <x:c r="F122" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G122" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H122" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I122" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="J122" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K122" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L122" s="0">
-        <x:v>11</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L122" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M122" s="0">
         <x:v>11</x:v>
       </x:c>
       <x:c r="N122" s="0">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="O122" s="0">
         <x:v>416.88</x:v>
       </x:c>
-      <x:c r="O122" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="123" spans="1:18">
-      <x:c r="A123" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P122" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="123" spans="1:19">
       <x:c r="B123" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C123" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C123" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D123" s="2">
         <x:v>45048</x:v>
       </x:c>
-      <x:c r="E123" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F123" s="0" t="s">
-        <x:v>20</x:v>
+      <x:c r="F123" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G123" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H123" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="I123" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J123" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K123" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L123" s="0">
-        <x:v>16.92</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L123" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M123" s="0">
         <x:v>16.92</x:v>
       </x:c>
       <x:c r="N123" s="0">
+        <x:v>16.92</x:v>
+      </x:c>
+      <x:c r="O123" s="0">
         <x:v>433.8</x:v>
       </x:c>
-      <x:c r="O123" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="124" spans="1:18">
-      <x:c r="A124" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P123" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="124" spans="1:19">
       <x:c r="B124" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="C124" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C124" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D124" s="2">
         <x:v>45049</x:v>
       </x:c>
-      <x:c r="E124" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F124" s="0" t="s">
-        <x:v>118</x:v>
+      <x:c r="F124" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G124" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H124" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I124" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="J124" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K124" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L124" s="0">
-        <x:v>17.42</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L124" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M124" s="0">
         <x:v>17.42</x:v>
       </x:c>
       <x:c r="N124" s="0">
+        <x:v>17.42</x:v>
+      </x:c>
+      <x:c r="O124" s="0">
         <x:v>451.22</x:v>
       </x:c>
-      <x:c r="O124" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="125" spans="1:18">
-      <x:c r="A125" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P124" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="125" spans="1:19">
       <x:c r="B125" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C125" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C125" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D125" s="2">
         <x:v>45050</x:v>
       </x:c>
-      <x:c r="E125" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F125" s="0" t="s">
-        <x:v>66</x:v>
+      <x:c r="F125" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G125" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="H125" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="I125" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J125" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K125" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L125" s="0">
-        <x:v>12.5</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L125" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M125" s="0">
         <x:v>12.5</x:v>
       </x:c>
       <x:c r="N125" s="0">
+        <x:v>12.5</x:v>
+      </x:c>
+      <x:c r="O125" s="0">
         <x:v>463.72</x:v>
       </x:c>
-      <x:c r="O125" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="126" spans="1:18">
-      <x:c r="A126" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P125" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="126" spans="1:19">
       <x:c r="B126" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="C126" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C126" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D126" s="2">
         <x:v>45051</x:v>
       </x:c>
-      <x:c r="E126" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F126" s="0" t="s">
-        <x:v>22</x:v>
+      <x:c r="F126" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G126" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H126" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I126" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J126" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K126" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L126" s="0">
-        <x:v>0</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L126" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M126" s="0">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N126" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O126" s="0">
         <x:v>463.72</x:v>
       </x:c>
-      <x:c r="O126" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="127" spans="1:18">
-      <x:c r="A127" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P126" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="127" spans="1:19">
       <x:c r="B127" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C127" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C127" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D127" s="2">
         <x:v>45052</x:v>
       </x:c>
-      <x:c r="E127" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F127" s="0" t="s">
-        <x:v>22</x:v>
+      <x:c r="F127" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G127" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H127" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I127" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J127" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K127" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L127" s="0">
-        <x:v>0</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L127" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M127" s="0">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N127" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O127" s="0">
         <x:v>463.72</x:v>
       </x:c>
-      <x:c r="O127" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="128" spans="1:18">
-      <x:c r="A128" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P127" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="128" spans="1:19">
       <x:c r="B128" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="C128" s="2">
+      <x:c r="C128" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D128" s="2">
         <x:v>45053</x:v>
       </x:c>
-      <x:c r="E128" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F128" s="0" t="s">
-        <x:v>20</x:v>
+      <x:c r="F128" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G128" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H128" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="I128" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J128" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="K128" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L128" s="0">
-        <x:v>5</x:v>
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="L128" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M128" s="0">
         <x:v>5</x:v>
       </x:c>
       <x:c r="N128" s="0">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="O128" s="0">
         <x:v>468.72</x:v>
       </x:c>
-      <x:c r="O128" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="129" spans="1:18">
-      <x:c r="A129" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P128" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="129" spans="1:19">
       <x:c r="B129" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C129" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C129" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D129" s="2">
         <x:v>45054</x:v>
       </x:c>
-      <x:c r="E129" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F129" s="0" t="s">
-        <x:v>118</x:v>
+      <x:c r="F129" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G129" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H129" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="I129" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J129" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K129" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L129" s="0">
-        <x:v>19.08</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L129" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M129" s="0">
         <x:v>19.08</x:v>
       </x:c>
       <x:c r="N129" s="0">
+        <x:v>19.08</x:v>
+      </x:c>
+      <x:c r="O129" s="0">
         <x:v>487.8</x:v>
       </x:c>
-      <x:c r="O129" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="130" spans="1:18">
-      <x:c r="A130" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P129" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="130" spans="1:19">
       <x:c r="B130" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C130" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C130" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D130" s="2">
         <x:v>45055</x:v>
       </x:c>
-      <x:c r="E130" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F130" s="0" t="s">
-        <x:v>22</x:v>
+      <x:c r="F130" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G130" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H130" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="I130" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J130" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="K130" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="L130" s="0">
-        <x:v>10.08</x:v>
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L130" s="0" t="s">
+        <x:v>33</x:v>
       </x:c>
       <x:c r="M130" s="0">
         <x:v>10.08</x:v>
       </x:c>
       <x:c r="N130" s="0">
+        <x:v>10.08</x:v>
+      </x:c>
+      <x:c r="O130" s="0">
         <x:v>497.88</x:v>
       </x:c>
-      <x:c r="O130" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="131" spans="1:18">
-      <x:c r="A131" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P130" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="131" spans="1:19">
       <x:c r="B131" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C131" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D131" s="2">
+        <x:v>45056</x:v>
+      </x:c>
+      <x:c r="F131" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G131" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="H131" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="I131" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="C131" s="2">
-        <x:v>45056</x:v>
-      </x:c>
-      <x:c r="E131" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F131" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="G131" s="0" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="H131" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="I131" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
       <x:c r="J131" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K131" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L131" s="0">
-        <x:v>9.25</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L131" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M131" s="0">
         <x:v>9.25</x:v>
       </x:c>
       <x:c r="N131" s="0">
+        <x:v>9.25</x:v>
+      </x:c>
+      <x:c r="O131" s="0">
         <x:v>507.13</x:v>
       </x:c>
-      <x:c r="O131" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="132" spans="1:18">
-      <x:c r="A132" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="P131" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="132" spans="1:19">
       <x:c r="B132" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C132" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C132" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D132" s="2">
         <x:v>45057</x:v>
       </x:c>
-      <x:c r="E132" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F132" s="0" t="s">
-        <x:v>22</x:v>
+      <x:c r="F132" s="0">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G132" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H132" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I132" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J132" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K132" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L132" s="0">
-        <x:v>0</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L132" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M132" s="0">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N132" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O132" s="0">
         <x:v>507.13</x:v>
       </x:c>
-      <x:c r="O132" s="0">
+      <x:c r="P132" s="0">
         <x:v>0</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:autoFilter ref="A1:R132"/>
+  <x:autoFilter ref="A1:S132"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>

--- a/eform-client/cypress/fixtures/2023-01-01_2023-05-11_report.xlsx
+++ b/eform-client/cypress/fixtures/2023-01-01_2023-05-11_report.xlsx
@@ -869,7 +869,7 @@
         <x:v>3.75</x:v>
       </x:c>
       <x:c r="O2" s="0">
-        <x:v>82.9</x:v>
+        <x:v>-15789.77</x:v>
       </x:c>
       <x:c r="P2" s="0">
         <x:v>0</x:v>
@@ -913,7 +913,7 @@
         <x:v>10.17</x:v>
       </x:c>
       <x:c r="O3" s="0">
-        <x:v>93.07</x:v>
+        <x:v>-15779.6</x:v>
       </x:c>
       <x:c r="P3" s="0">
         <x:v>0</x:v>
@@ -957,7 +957,7 @@
         <x:v>13.5</x:v>
       </x:c>
       <x:c r="O4" s="0">
-        <x:v>106.57</x:v>
+        <x:v>-15766.1</x:v>
       </x:c>
       <x:c r="P4" s="0">
         <x:v>0</x:v>
@@ -1001,7 +1001,7 @@
         <x:v>12.25</x:v>
       </x:c>
       <x:c r="O5" s="0">
-        <x:v>118.82</x:v>
+        <x:v>-15753.85</x:v>
       </x:c>
       <x:c r="P5" s="0">
         <x:v>0</x:v>
@@ -1045,7 +1045,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="O6" s="0">
-        <x:v>129.82</x:v>
+        <x:v>-15742.85</x:v>
       </x:c>
       <x:c r="P6" s="0">
         <x:v>0</x:v>
@@ -1089,7 +1089,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O7" s="0">
-        <x:v>129.82</x:v>
+        <x:v>-15742.85</x:v>
       </x:c>
       <x:c r="P7" s="0">
         <x:v>0</x:v>
@@ -1133,7 +1133,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O8" s="0">
-        <x:v>129.82</x:v>
+        <x:v>-15742.85</x:v>
       </x:c>
       <x:c r="P8" s="0">
         <x:v>0</x:v>
@@ -1177,7 +1177,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O9" s="0">
-        <x:v>129.82</x:v>
+        <x:v>-15742.85</x:v>
       </x:c>
       <x:c r="P9" s="0">
         <x:v>0</x:v>
@@ -1221,7 +1221,7 @@
         <x:v>10.25</x:v>
       </x:c>
       <x:c r="O10" s="0">
-        <x:v>140.07</x:v>
+        <x:v>-15732.6</x:v>
       </x:c>
       <x:c r="P10" s="0">
         <x:v>0</x:v>
@@ -1265,7 +1265,7 @@
         <x:v>10.75</x:v>
       </x:c>
       <x:c r="O11" s="0">
-        <x:v>150.82</x:v>
+        <x:v>-15721.85</x:v>
       </x:c>
       <x:c r="P11" s="0">
         <x:v>0</x:v>
@@ -1309,7 +1309,7 @@
         <x:v>11.75</x:v>
       </x:c>
       <x:c r="O12" s="0">
-        <x:v>162.57</x:v>
+        <x:v>-15710.1</x:v>
       </x:c>
       <x:c r="P12" s="0">
         <x:v>0</x:v>
@@ -1353,7 +1353,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="O13" s="0">
-        <x:v>170.57</x:v>
+        <x:v>-15702.1</x:v>
       </x:c>
       <x:c r="P13" s="0">
         <x:v>0</x:v>
@@ -1397,7 +1397,7 @@
         <x:v>7.17</x:v>
       </x:c>
       <x:c r="O14" s="0">
-        <x:v>177.74</x:v>
+        <x:v>-15694.93</x:v>
       </x:c>
       <x:c r="P14" s="0">
         <x:v>0</x:v>
@@ -1441,7 +1441,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O15" s="0">
-        <x:v>177.74</x:v>
+        <x:v>-15694.93</x:v>
       </x:c>
       <x:c r="P15" s="0">
         <x:v>0</x:v>
@@ -1485,7 +1485,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O16" s="0">
-        <x:v>177.74</x:v>
+        <x:v>-15694.93</x:v>
       </x:c>
       <x:c r="P16" s="0">
         <x:v>0</x:v>
@@ -1529,7 +1529,7 @@
         <x:v>10.5</x:v>
       </x:c>
       <x:c r="O17" s="0">
-        <x:v>188.24</x:v>
+        <x:v>-15684.43</x:v>
       </x:c>
       <x:c r="P17" s="0">
         <x:v>0</x:v>
@@ -1573,7 +1573,7 @@
         <x:v>10.83</x:v>
       </x:c>
       <x:c r="O18" s="0">
-        <x:v>199.07</x:v>
+        <x:v>-15673.6</x:v>
       </x:c>
       <x:c r="P18" s="0">
         <x:v>0</x:v>
@@ -1617,7 +1617,7 @@
         <x:v>9.92</x:v>
       </x:c>
       <x:c r="O19" s="0">
-        <x:v>208.99</x:v>
+        <x:v>-15663.68</x:v>
       </x:c>
       <x:c r="P19" s="0">
         <x:v>0</x:v>
@@ -1661,7 +1661,7 @@
         <x:v>9.75</x:v>
       </x:c>
       <x:c r="O20" s="0">
-        <x:v>218.74</x:v>
+        <x:v>-15653.93</x:v>
       </x:c>
       <x:c r="P20" s="0">
         <x:v>0</x:v>
@@ -1705,7 +1705,7 @@
         <x:v>10.17</x:v>
       </x:c>
       <x:c r="O21" s="0">
-        <x:v>228.91</x:v>
+        <x:v>-15643.76</x:v>
       </x:c>
       <x:c r="P21" s="0">
         <x:v>0</x:v>
@@ -1749,7 +1749,7 @@
         <x:v>3.25</x:v>
       </x:c>
       <x:c r="O22" s="0">
-        <x:v>232.16</x:v>
+        <x:v>-15640.51</x:v>
       </x:c>
       <x:c r="P22" s="0">
         <x:v>0</x:v>
@@ -1793,7 +1793,7 @@
         <x:v>3.08</x:v>
       </x:c>
       <x:c r="O23" s="0">
-        <x:v>235.24</x:v>
+        <x:v>-15637.43</x:v>
       </x:c>
       <x:c r="P23" s="0">
         <x:v>0</x:v>
@@ -1837,7 +1837,7 @@
         <x:v>9.58</x:v>
       </x:c>
       <x:c r="O24" s="0">
-        <x:v>244.82</x:v>
+        <x:v>-15627.85</x:v>
       </x:c>
       <x:c r="P24" s="0">
         <x:v>0</x:v>
@@ -1881,7 +1881,7 @@
         <x:v>9.25</x:v>
       </x:c>
       <x:c r="O25" s="0">
-        <x:v>254.07</x:v>
+        <x:v>-15618.6</x:v>
       </x:c>
       <x:c r="P25" s="0">
         <x:v>0</x:v>
@@ -1925,7 +1925,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="O26" s="0">
-        <x:v>265.07</x:v>
+        <x:v>-15607.6</x:v>
       </x:c>
       <x:c r="P26" s="0">
         <x:v>0</x:v>
@@ -1969,7 +1969,7 @@
         <x:v>10.75</x:v>
       </x:c>
       <x:c r="O27" s="0">
-        <x:v>275.82</x:v>
+        <x:v>-15596.85</x:v>
       </x:c>
       <x:c r="P27" s="0">
         <x:v>0</x:v>
@@ -2013,7 +2013,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O28" s="0">
-        <x:v>275.82</x:v>
+        <x:v>-15596.85</x:v>
       </x:c>
       <x:c r="P28" s="0">
         <x:v>0</x:v>
@@ -2057,7 +2057,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O29" s="0">
-        <x:v>275.82</x:v>
+        <x:v>-15596.85</x:v>
       </x:c>
       <x:c r="P29" s="0">
         <x:v>0</x:v>
@@ -2101,7 +2101,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O30" s="0">
-        <x:v>275.82</x:v>
+        <x:v>-15596.85</x:v>
       </x:c>
       <x:c r="P30" s="0">
         <x:v>0</x:v>
@@ -2145,7 +2145,7 @@
         <x:v>9.75</x:v>
       </x:c>
       <x:c r="O31" s="0">
-        <x:v>285.57</x:v>
+        <x:v>-15587.1</x:v>
       </x:c>
       <x:c r="P31" s="0">
         <x:v>0</x:v>
@@ -2189,10 +2189,10 @@
         <x:v>9.5</x:v>
       </x:c>
       <x:c r="O32" s="0">
-        <x:v>134.74</x:v>
+        <x:v>-31610.6</x:v>
       </x:c>
       <x:c r="P32" s="0">
-        <x:v>160.33</x:v>
+        <x:v>16033</x:v>
       </x:c>
       <x:c r="S32" s="0" t="s">
         <x:v>60</x:v>
@@ -2236,7 +2236,7 @@
         <x:v>9.5</x:v>
       </x:c>
       <x:c r="O33" s="0">
-        <x:v>144.24</x:v>
+        <x:v>-31601.1</x:v>
       </x:c>
       <x:c r="P33" s="0">
         <x:v>0</x:v>
@@ -2280,7 +2280,7 @@
         <x:v>8.58</x:v>
       </x:c>
       <x:c r="O34" s="0">
-        <x:v>152.82</x:v>
+        <x:v>-31592.52</x:v>
       </x:c>
       <x:c r="P34" s="0">
         <x:v>0</x:v>
@@ -2324,7 +2324,7 @@
         <x:v>7.5</x:v>
       </x:c>
       <x:c r="O35" s="0">
-        <x:v>160.32</x:v>
+        <x:v>-31585.02</x:v>
       </x:c>
       <x:c r="P35" s="0">
         <x:v>0</x:v>
@@ -2368,7 +2368,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O36" s="0">
-        <x:v>160.32</x:v>
+        <x:v>-31585.02</x:v>
       </x:c>
       <x:c r="P36" s="0">
         <x:v>0</x:v>
@@ -2412,7 +2412,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O37" s="0">
-        <x:v>160.32</x:v>
+        <x:v>-31585.02</x:v>
       </x:c>
       <x:c r="P37" s="0">
         <x:v>0</x:v>
@@ -2456,7 +2456,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="O38" s="0">
-        <x:v>169.32</x:v>
+        <x:v>-31576.02</x:v>
       </x:c>
       <x:c r="P38" s="0">
         <x:v>0</x:v>
@@ -2500,7 +2500,7 @@
         <x:v>10.92</x:v>
       </x:c>
       <x:c r="O39" s="0">
-        <x:v>180.24</x:v>
+        <x:v>-31565.1</x:v>
       </x:c>
       <x:c r="P39" s="0">
         <x:v>0</x:v>
@@ -2544,7 +2544,7 @@
         <x:v>10.33</x:v>
       </x:c>
       <x:c r="O40" s="0">
-        <x:v>190.57</x:v>
+        <x:v>-31554.77</x:v>
       </x:c>
       <x:c r="P40" s="0">
         <x:v>0</x:v>
@@ -2588,7 +2588,7 @@
         <x:v>9.33</x:v>
       </x:c>
       <x:c r="O41" s="0">
-        <x:v>199.9</x:v>
+        <x:v>-31545.44</x:v>
       </x:c>
       <x:c r="P41" s="0">
         <x:v>0</x:v>
@@ -2632,7 +2632,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="O42" s="0">
-        <x:v>209.9</x:v>
+        <x:v>-31535.44</x:v>
       </x:c>
       <x:c r="P42" s="0">
         <x:v>0</x:v>
@@ -2676,7 +2676,7 @@
         <x:v>3.92</x:v>
       </x:c>
       <x:c r="O43" s="0">
-        <x:v>213.82</x:v>
+        <x:v>-31531.52</x:v>
       </x:c>
       <x:c r="P43" s="0">
         <x:v>0</x:v>
@@ -2720,7 +2720,7 @@
         <x:v>3.83</x:v>
       </x:c>
       <x:c r="O44" s="0">
-        <x:v>217.65</x:v>
+        <x:v>-31527.69</x:v>
       </x:c>
       <x:c r="P44" s="0">
         <x:v>0</x:v>
@@ -2764,7 +2764,7 @@
         <x:v>10.5</x:v>
       </x:c>
       <x:c r="O45" s="0">
-        <x:v>228.15</x:v>
+        <x:v>-31517.19</x:v>
       </x:c>
       <x:c r="P45" s="0">
         <x:v>0</x:v>
@@ -2808,7 +2808,7 @@
         <x:v>9.5</x:v>
       </x:c>
       <x:c r="O46" s="0">
-        <x:v>237.65</x:v>
+        <x:v>-31507.69</x:v>
       </x:c>
       <x:c r="P46" s="0">
         <x:v>0</x:v>
@@ -2852,7 +2852,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="O47" s="0">
-        <x:v>248.65</x:v>
+        <x:v>-31496.69</x:v>
       </x:c>
       <x:c r="P47" s="0">
         <x:v>0</x:v>
@@ -2896,7 +2896,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="O48" s="0">
-        <x:v>258.65</x:v>
+        <x:v>-31486.69</x:v>
       </x:c>
       <x:c r="P48" s="0">
         <x:v>0</x:v>
@@ -2940,7 +2940,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="O49" s="0">
-        <x:v>267.65</x:v>
+        <x:v>-31477.69</x:v>
       </x:c>
       <x:c r="P49" s="0">
         <x:v>0</x:v>
@@ -2984,7 +2984,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O50" s="0">
-        <x:v>267.65</x:v>
+        <x:v>-31477.69</x:v>
       </x:c>
       <x:c r="P50" s="0">
         <x:v>0</x:v>
@@ -3028,7 +3028,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O51" s="0">
-        <x:v>267.65</x:v>
+        <x:v>-31477.69</x:v>
       </x:c>
       <x:c r="P51" s="0">
         <x:v>0</x:v>
@@ -3072,7 +3072,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="O52" s="0">
-        <x:v>276.65</x:v>
+        <x:v>-31468.69</x:v>
       </x:c>
       <x:c r="P52" s="0">
         <x:v>0</x:v>
@@ -3116,7 +3116,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="O53" s="0">
-        <x:v>284.65</x:v>
+        <x:v>-31460.69</x:v>
       </x:c>
       <x:c r="P53" s="0">
         <x:v>0</x:v>
@@ -3160,7 +3160,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="O54" s="0">
-        <x:v>293.65</x:v>
+        <x:v>-31451.69</x:v>
       </x:c>
       <x:c r="P54" s="0">
         <x:v>0</x:v>
@@ -3204,7 +3204,7 @@
         <x:v>9.42</x:v>
       </x:c>
       <x:c r="O55" s="0">
-        <x:v>303.07</x:v>
+        <x:v>-31442.27</x:v>
       </x:c>
       <x:c r="P55" s="0">
         <x:v>0</x:v>
@@ -3248,7 +3248,7 @@
         <x:v>7.83</x:v>
       </x:c>
       <x:c r="O56" s="0">
-        <x:v>310.9</x:v>
+        <x:v>-31434.44</x:v>
       </x:c>
       <x:c r="P56" s="0">
         <x:v>0</x:v>
@@ -3292,7 +3292,7 @@
         <x:v>0.83</x:v>
       </x:c>
       <x:c r="O57" s="0">
-        <x:v>311.73</x:v>
+        <x:v>-31433.61</x:v>
       </x:c>
       <x:c r="P57" s="0">
         <x:v>0</x:v>
@@ -3336,7 +3336,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O58" s="0">
-        <x:v>311.73</x:v>
+        <x:v>-31433.61</x:v>
       </x:c>
       <x:c r="P58" s="0">
         <x:v>0</x:v>
@@ -3380,7 +3380,7 @@
         <x:v>9.25</x:v>
       </x:c>
       <x:c r="O59" s="0">
-        <x:v>320.98</x:v>
+        <x:v>-31424.36</x:v>
       </x:c>
       <x:c r="P59" s="0">
         <x:v>0</x:v>
@@ -3424,10 +3424,10 @@
         <x:v>9.5</x:v>
       </x:c>
       <x:c r="O60" s="0">
-        <x:v>170.15</x:v>
+        <x:v>-47447.86</x:v>
       </x:c>
       <x:c r="P60" s="0">
-        <x:v>160.33</x:v>
+        <x:v>16033</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:19">
@@ -3468,7 +3468,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="O61" s="0">
-        <x:v>181.15</x:v>
+        <x:v>-47436.86</x:v>
       </x:c>
       <x:c r="P61" s="0">
         <x:v>0</x:v>
@@ -3512,7 +3512,7 @@
         <x:v>11.5</x:v>
       </x:c>
       <x:c r="O62" s="0">
-        <x:v>192.65</x:v>
+        <x:v>-47425.36</x:v>
       </x:c>
       <x:c r="P62" s="0">
         <x:v>0</x:v>
@@ -3556,7 +3556,7 @@
         <x:v>6.5</x:v>
       </x:c>
       <x:c r="O63" s="0">
-        <x:v>199.15</x:v>
+        <x:v>-47418.86</x:v>
       </x:c>
       <x:c r="P63" s="0">
         <x:v>0</x:v>
@@ -3600,7 +3600,7 @@
         <x:v>11.25</x:v>
       </x:c>
       <x:c r="O64" s="0">
-        <x:v>210.4</x:v>
+        <x:v>-47407.61</x:v>
       </x:c>
       <x:c r="P64" s="0">
         <x:v>0</x:v>
@@ -3644,7 +3644,7 @@
         <x:v>4.75</x:v>
       </x:c>
       <x:c r="O65" s="0">
-        <x:v>215.15</x:v>
+        <x:v>-47402.86</x:v>
       </x:c>
       <x:c r="P65" s="0">
         <x:v>0</x:v>
@@ -3688,7 +3688,7 @@
         <x:v>12.75</x:v>
       </x:c>
       <x:c r="O66" s="0">
-        <x:v>227.9</x:v>
+        <x:v>-47390.11</x:v>
       </x:c>
       <x:c r="P66" s="0">
         <x:v>0</x:v>
@@ -3732,7 +3732,7 @@
         <x:v>10.08</x:v>
       </x:c>
       <x:c r="O67" s="0">
-        <x:v>237.98</x:v>
+        <x:v>-47380.03</x:v>
       </x:c>
       <x:c r="P67" s="0">
         <x:v>0</x:v>
@@ -3776,7 +3776,7 @@
         <x:v>11.5</x:v>
       </x:c>
       <x:c r="O68" s="0">
-        <x:v>249.48</x:v>
+        <x:v>-47368.53</x:v>
       </x:c>
       <x:c r="P68" s="0">
         <x:v>0</x:v>
@@ -3820,7 +3820,7 @@
         <x:v>9.83</x:v>
       </x:c>
       <x:c r="O69" s="0">
-        <x:v>259.31</x:v>
+        <x:v>-47358.7</x:v>
       </x:c>
       <x:c r="P69" s="0">
         <x:v>0</x:v>
@@ -3864,7 +3864,7 @@
         <x:v>6.83</x:v>
       </x:c>
       <x:c r="O70" s="0">
-        <x:v>266.14</x:v>
+        <x:v>-47351.87</x:v>
       </x:c>
       <x:c r="P70" s="0">
         <x:v>0</x:v>
@@ -3908,7 +3908,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O71" s="0">
-        <x:v>266.14</x:v>
+        <x:v>-47351.87</x:v>
       </x:c>
       <x:c r="P71" s="0">
         <x:v>0</x:v>
@@ -3952,7 +3952,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O72" s="0">
-        <x:v>266.14</x:v>
+        <x:v>-47351.87</x:v>
       </x:c>
       <x:c r="P72" s="0">
         <x:v>0</x:v>
@@ -3996,7 +3996,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="O73" s="0">
-        <x:v>276.14</x:v>
+        <x:v>-47341.87</x:v>
       </x:c>
       <x:c r="P73" s="0">
         <x:v>0</x:v>
@@ -4040,7 +4040,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O74" s="0">
-        <x:v>276.14</x:v>
+        <x:v>-47341.87</x:v>
       </x:c>
       <x:c r="P74" s="0">
         <x:v>0</x:v>
@@ -4084,7 +4084,7 @@
         <x:v>10.67</x:v>
       </x:c>
       <x:c r="O75" s="0">
-        <x:v>286.81</x:v>
+        <x:v>-47331.2</x:v>
       </x:c>
       <x:c r="P75" s="0">
         <x:v>0</x:v>
@@ -4128,7 +4128,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O76" s="0">
-        <x:v>286.81</x:v>
+        <x:v>-47331.2</x:v>
       </x:c>
       <x:c r="P76" s="0">
         <x:v>0</x:v>
@@ -4172,7 +4172,7 @@
         <x:v>7.5</x:v>
       </x:c>
       <x:c r="O77" s="0">
-        <x:v>294.31</x:v>
+        <x:v>-47323.7</x:v>
       </x:c>
       <x:c r="P77" s="0">
         <x:v>0</x:v>
@@ -4216,7 +4216,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O78" s="0">
-        <x:v>294.31</x:v>
+        <x:v>-47323.7</x:v>
       </x:c>
       <x:c r="P78" s="0">
         <x:v>0</x:v>
@@ -4260,7 +4260,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O79" s="0">
-        <x:v>294.31</x:v>
+        <x:v>-47323.7</x:v>
       </x:c>
       <x:c r="P79" s="0">
         <x:v>0</x:v>
@@ -4304,7 +4304,7 @@
         <x:v>6.5</x:v>
       </x:c>
       <x:c r="O80" s="0">
-        <x:v>300.81</x:v>
+        <x:v>-47317.2</x:v>
       </x:c>
       <x:c r="P80" s="0">
         <x:v>0</x:v>
@@ -4348,7 +4348,7 @@
         <x:v>8.17</x:v>
       </x:c>
       <x:c r="O81" s="0">
-        <x:v>308.98</x:v>
+        <x:v>-47309.03</x:v>
       </x:c>
       <x:c r="P81" s="0">
         <x:v>0</x:v>
@@ -4392,7 +4392,7 @@
         <x:v>10.5</x:v>
       </x:c>
       <x:c r="O82" s="0">
-        <x:v>319.48</x:v>
+        <x:v>-47298.53</x:v>
       </x:c>
       <x:c r="P82" s="0">
         <x:v>0</x:v>
@@ -4436,7 +4436,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="O83" s="0">
-        <x:v>327.48</x:v>
+        <x:v>-47290.53</x:v>
       </x:c>
       <x:c r="P83" s="0">
         <x:v>0</x:v>
@@ -4480,7 +4480,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="O84" s="0">
-        <x:v>335.48</x:v>
+        <x:v>-47282.53</x:v>
       </x:c>
       <x:c r="P84" s="0">
         <x:v>0</x:v>
@@ -4524,7 +4524,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="O85" s="0">
-        <x:v>338.48</x:v>
+        <x:v>-47279.53</x:v>
       </x:c>
       <x:c r="P85" s="0">
         <x:v>0</x:v>
@@ -4568,7 +4568,7 @@
         <x:v>4.75</x:v>
       </x:c>
       <x:c r="O86" s="0">
-        <x:v>343.23</x:v>
+        <x:v>-47274.78</x:v>
       </x:c>
       <x:c r="P86" s="0">
         <x:v>0</x:v>
@@ -4612,7 +4612,7 @@
         <x:v>10.25</x:v>
       </x:c>
       <x:c r="O87" s="0">
-        <x:v>353.48</x:v>
+        <x:v>-47264.53</x:v>
       </x:c>
       <x:c r="P87" s="0">
         <x:v>0</x:v>
@@ -4656,7 +4656,7 @@
         <x:v>9.17</x:v>
       </x:c>
       <x:c r="O88" s="0">
-        <x:v>362.65</x:v>
+        <x:v>-47255.36</x:v>
       </x:c>
       <x:c r="P88" s="0">
         <x:v>0</x:v>
@@ -4700,7 +4700,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="O89" s="0">
-        <x:v>370.65</x:v>
+        <x:v>-47247.36</x:v>
       </x:c>
       <x:c r="P89" s="0">
         <x:v>0</x:v>
@@ -4744,7 +4744,7 @@
         <x:v>10.25</x:v>
       </x:c>
       <x:c r="O90" s="0">
-        <x:v>380.9</x:v>
+        <x:v>-47237.11</x:v>
       </x:c>
       <x:c r="P90" s="0">
         <x:v>0</x:v>
@@ -4788,10 +4788,10 @@
         <x:v>2.5</x:v>
       </x:c>
       <x:c r="O91" s="0">
-        <x:v>223.07</x:v>
+        <x:v>-63267.61</x:v>
       </x:c>
       <x:c r="P91" s="0">
-        <x:v>160.33</x:v>
+        <x:v>16033</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:19">
@@ -4832,7 +4832,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O92" s="0">
-        <x:v>223.07</x:v>
+        <x:v>-63267.61</x:v>
       </x:c>
       <x:c r="P92" s="0">
         <x:v>0</x:v>
@@ -4876,7 +4876,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O93" s="0">
-        <x:v>223.07</x:v>
+        <x:v>-63267.61</x:v>
       </x:c>
       <x:c r="P93" s="0">
         <x:v>0</x:v>
@@ -4920,7 +4920,7 @@
         <x:v>13.75</x:v>
       </x:c>
       <x:c r="O94" s="0">
-        <x:v>236.82</x:v>
+        <x:v>-63253.86</x:v>
       </x:c>
       <x:c r="P94" s="0">
         <x:v>0</x:v>
@@ -4964,7 +4964,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="O95" s="0">
-        <x:v>252.82</x:v>
+        <x:v>-63237.86</x:v>
       </x:c>
       <x:c r="P95" s="0">
         <x:v>0</x:v>
@@ -5008,7 +5008,7 @@
         <x:v>14.5</x:v>
       </x:c>
       <x:c r="O96" s="0">
-        <x:v>267.32</x:v>
+        <x:v>-63223.36</x:v>
       </x:c>
       <x:c r="P96" s="0">
         <x:v>0</x:v>
@@ -5052,7 +5052,7 @@
         <x:v>15.58</x:v>
       </x:c>
       <x:c r="O97" s="0">
-        <x:v>282.9</x:v>
+        <x:v>-63207.78</x:v>
       </x:c>
       <x:c r="P97" s="0">
         <x:v>0</x:v>
@@ -5096,7 +5096,7 @@
         <x:v>8.67</x:v>
       </x:c>
       <x:c r="O98" s="0">
-        <x:v>291.57</x:v>
+        <x:v>-63199.11</x:v>
       </x:c>
       <x:c r="P98" s="0">
         <x:v>0</x:v>
@@ -5140,7 +5140,7 @@
         <x:v>16.58</x:v>
       </x:c>
       <x:c r="O99" s="0">
-        <x:v>308.15</x:v>
+        <x:v>-63182.53</x:v>
       </x:c>
       <x:c r="P99" s="0">
         <x:v>0</x:v>
@@ -5184,7 +5184,7 @@
         <x:v>13.75</x:v>
       </x:c>
       <x:c r="O100" s="0">
-        <x:v>321.9</x:v>
+        <x:v>-63168.78</x:v>
       </x:c>
       <x:c r="P100" s="0">
         <x:v>0</x:v>
@@ -5228,7 +5228,7 @@
         <x:v>13.58</x:v>
       </x:c>
       <x:c r="O101" s="0">
-        <x:v>335.48</x:v>
+        <x:v>-63155.2</x:v>
       </x:c>
       <x:c r="P101" s="0">
         <x:v>0</x:v>
@@ -5272,7 +5272,7 @@
         <x:v>18.25</x:v>
       </x:c>
       <x:c r="O102" s="0">
-        <x:v>353.73</x:v>
+        <x:v>-63136.95</x:v>
       </x:c>
       <x:c r="P102" s="0">
         <x:v>0</x:v>
@@ -5316,7 +5316,7 @@
         <x:v>10.83</x:v>
       </x:c>
       <x:c r="O103" s="0">
-        <x:v>364.56</x:v>
+        <x:v>-63126.12</x:v>
       </x:c>
       <x:c r="P103" s="0">
         <x:v>0</x:v>
@@ -5360,7 +5360,7 @@
         <x:v>9.83</x:v>
       </x:c>
       <x:c r="O104" s="0">
-        <x:v>374.39</x:v>
+        <x:v>-63116.29</x:v>
       </x:c>
       <x:c r="P104" s="0">
         <x:v>0</x:v>
@@ -5404,7 +5404,7 @@
         <x:v>8.83</x:v>
       </x:c>
       <x:c r="O105" s="0">
-        <x:v>383.22</x:v>
+        <x:v>-63107.46</x:v>
       </x:c>
       <x:c r="P105" s="0">
         <x:v>0</x:v>
@@ -5448,7 +5448,7 @@
         <x:v>5.25</x:v>
       </x:c>
       <x:c r="O106" s="0">
-        <x:v>388.47</x:v>
+        <x:v>-63102.21</x:v>
       </x:c>
       <x:c r="P106" s="0">
         <x:v>0</x:v>
@@ -5492,7 +5492,7 @@
         <x:v>6.33</x:v>
       </x:c>
       <x:c r="O107" s="0">
-        <x:v>394.8</x:v>
+        <x:v>-63095.88</x:v>
       </x:c>
       <x:c r="P107" s="0">
         <x:v>0</x:v>
@@ -5536,7 +5536,7 @@
         <x:v>16.08</x:v>
       </x:c>
       <x:c r="O108" s="0">
-        <x:v>410.88</x:v>
+        <x:v>-63079.8</x:v>
       </x:c>
       <x:c r="P108" s="0">
         <x:v>0</x:v>
@@ -5580,7 +5580,7 @@
         <x:v>12.5</x:v>
       </x:c>
       <x:c r="O109" s="0">
-        <x:v>423.38</x:v>
+        <x:v>-63067.3</x:v>
       </x:c>
       <x:c r="P109" s="0">
         <x:v>0</x:v>
@@ -5624,7 +5624,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="O110" s="0">
-        <x:v>437.38</x:v>
+        <x:v>-63053.3</x:v>
       </x:c>
       <x:c r="P110" s="0">
         <x:v>0</x:v>
@@ -5668,7 +5668,7 @@
         <x:v>16.25</x:v>
       </x:c>
       <x:c r="O111" s="0">
-        <x:v>453.63</x:v>
+        <x:v>-63037.05</x:v>
       </x:c>
       <x:c r="P111" s="0">
         <x:v>0</x:v>
@@ -5712,7 +5712,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="O112" s="0">
-        <x:v>468.63</x:v>
+        <x:v>-63022.05</x:v>
       </x:c>
       <x:c r="P112" s="0">
         <x:v>0</x:v>
@@ -5756,7 +5756,7 @@
         <x:v>14.5</x:v>
       </x:c>
       <x:c r="O113" s="0">
-        <x:v>483.13</x:v>
+        <x:v>-63007.55</x:v>
       </x:c>
       <x:c r="P113" s="0">
         <x:v>0</x:v>
@@ -5800,7 +5800,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O114" s="0">
-        <x:v>487.13</x:v>
+        <x:v>-63003.55</x:v>
       </x:c>
       <x:c r="P114" s="0">
         <x:v>0</x:v>
@@ -5844,7 +5844,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O115" s="0">
-        <x:v>487.13</x:v>
+        <x:v>-63003.55</x:v>
       </x:c>
       <x:c r="P115" s="0">
         <x:v>0</x:v>
@@ -5888,7 +5888,7 @@
         <x:v>10.5</x:v>
       </x:c>
       <x:c r="O116" s="0">
-        <x:v>497.63</x:v>
+        <x:v>-62993.05</x:v>
       </x:c>
       <x:c r="P116" s="0">
         <x:v>0</x:v>
@@ -5932,7 +5932,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O117" s="0">
-        <x:v>497.63</x:v>
+        <x:v>-62993.05</x:v>
       </x:c>
       <x:c r="P117" s="0">
         <x:v>0</x:v>
@@ -5976,7 +5976,7 @@
         <x:v>16.58</x:v>
       </x:c>
       <x:c r="O118" s="0">
-        <x:v>514.21</x:v>
+        <x:v>-62976.47</x:v>
       </x:c>
       <x:c r="P118" s="0">
         <x:v>0</x:v>
@@ -6020,7 +6020,7 @@
         <x:v>17.5</x:v>
       </x:c>
       <x:c r="O119" s="0">
-        <x:v>531.71</x:v>
+        <x:v>-62958.97</x:v>
       </x:c>
       <x:c r="P119" s="0">
         <x:v>0</x:v>
@@ -6064,7 +6064,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="O120" s="0">
-        <x:v>549.71</x:v>
+        <x:v>-62940.97</x:v>
       </x:c>
       <x:c r="P120" s="0">
         <x:v>0</x:v>
@@ -6108,10 +6108,10 @@
         <x:v>16.5</x:v>
       </x:c>
       <x:c r="O121" s="0">
-        <x:v>405.88</x:v>
+        <x:v>-78957.47</x:v>
       </x:c>
       <x:c r="P121" s="0">
-        <x:v>160.33</x:v>
+        <x:v>16033</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:19">
@@ -6152,7 +6152,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="O122" s="0">
-        <x:v>416.88</x:v>
+        <x:v>-78946.47</x:v>
       </x:c>
       <x:c r="P122" s="0">
         <x:v>0</x:v>
@@ -6196,7 +6196,7 @@
         <x:v>16.92</x:v>
       </x:c>
       <x:c r="O123" s="0">
-        <x:v>433.8</x:v>
+        <x:v>-78929.55</x:v>
       </x:c>
       <x:c r="P123" s="0">
         <x:v>0</x:v>
@@ -6240,7 +6240,7 @@
         <x:v>17.42</x:v>
       </x:c>
       <x:c r="O124" s="0">
-        <x:v>451.22</x:v>
+        <x:v>-78912.13</x:v>
       </x:c>
       <x:c r="P124" s="0">
         <x:v>0</x:v>
@@ -6284,7 +6284,7 @@
         <x:v>12.5</x:v>
       </x:c>
       <x:c r="O125" s="0">
-        <x:v>463.72</x:v>
+        <x:v>-78899.63</x:v>
       </x:c>
       <x:c r="P125" s="0">
         <x:v>0</x:v>
@@ -6328,7 +6328,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O126" s="0">
-        <x:v>463.72</x:v>
+        <x:v>-78899.63</x:v>
       </x:c>
       <x:c r="P126" s="0">
         <x:v>0</x:v>
@@ -6372,7 +6372,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O127" s="0">
-        <x:v>463.72</x:v>
+        <x:v>-78899.63</x:v>
       </x:c>
       <x:c r="P127" s="0">
         <x:v>0</x:v>
@@ -6416,7 +6416,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="O128" s="0">
-        <x:v>468.72</x:v>
+        <x:v>-78894.63</x:v>
       </x:c>
       <x:c r="P128" s="0">
         <x:v>0</x:v>
@@ -6460,7 +6460,7 @@
         <x:v>19.08</x:v>
       </x:c>
       <x:c r="O129" s="0">
-        <x:v>487.8</x:v>
+        <x:v>-78875.55</x:v>
       </x:c>
       <x:c r="P129" s="0">
         <x:v>0</x:v>
@@ -6504,7 +6504,7 @@
         <x:v>10.08</x:v>
       </x:c>
       <x:c r="O130" s="0">
-        <x:v>497.88</x:v>
+        <x:v>-78865.47</x:v>
       </x:c>
       <x:c r="P130" s="0">
         <x:v>0</x:v>
@@ -6548,7 +6548,7 @@
         <x:v>9.25</x:v>
       </x:c>
       <x:c r="O131" s="0">
-        <x:v>507.13</x:v>
+        <x:v>-78856.22</x:v>
       </x:c>
       <x:c r="P131" s="0">
         <x:v>0</x:v>
@@ -6592,7 +6592,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O132" s="0">
-        <x:v>507.13</x:v>
+        <x:v>-78856.22</x:v>
       </x:c>
       <x:c r="P132" s="0">
         <x:v>0</x:v>

--- a/eform-client/cypress/fixtures/2023-01-01_2023-05-11_report.xlsx
+++ b/eform-client/cypress/fixtures/2023-01-01_2023-05-11_report.xlsx
@@ -869,7 +869,7 @@
         <x:v>3.75</x:v>
       </x:c>
       <x:c r="O2" s="0">
-        <x:v>-15789.77</x:v>
+        <x:v>82.9</x:v>
       </x:c>
       <x:c r="P2" s="0">
         <x:v>0</x:v>
@@ -913,7 +913,7 @@
         <x:v>10.17</x:v>
       </x:c>
       <x:c r="O3" s="0">
-        <x:v>-15779.6</x:v>
+        <x:v>93.07</x:v>
       </x:c>
       <x:c r="P3" s="0">
         <x:v>0</x:v>
@@ -957,7 +957,7 @@
         <x:v>13.5</x:v>
       </x:c>
       <x:c r="O4" s="0">
-        <x:v>-15766.1</x:v>
+        <x:v>106.57</x:v>
       </x:c>
       <x:c r="P4" s="0">
         <x:v>0</x:v>
@@ -1001,7 +1001,7 @@
         <x:v>12.25</x:v>
       </x:c>
       <x:c r="O5" s="0">
-        <x:v>-15753.85</x:v>
+        <x:v>118.82</x:v>
       </x:c>
       <x:c r="P5" s="0">
         <x:v>0</x:v>
@@ -1045,7 +1045,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="O6" s="0">
-        <x:v>-15742.85</x:v>
+        <x:v>129.82</x:v>
       </x:c>
       <x:c r="P6" s="0">
         <x:v>0</x:v>
@@ -1089,7 +1089,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O7" s="0">
-        <x:v>-15742.85</x:v>
+        <x:v>129.82</x:v>
       </x:c>
       <x:c r="P7" s="0">
         <x:v>0</x:v>
@@ -1133,7 +1133,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O8" s="0">
-        <x:v>-15742.85</x:v>
+        <x:v>129.82</x:v>
       </x:c>
       <x:c r="P8" s="0">
         <x:v>0</x:v>
@@ -1177,7 +1177,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O9" s="0">
-        <x:v>-15742.85</x:v>
+        <x:v>129.82</x:v>
       </x:c>
       <x:c r="P9" s="0">
         <x:v>0</x:v>
@@ -1221,7 +1221,7 @@
         <x:v>10.25</x:v>
       </x:c>
       <x:c r="O10" s="0">
-        <x:v>-15732.6</x:v>
+        <x:v>140.07</x:v>
       </x:c>
       <x:c r="P10" s="0">
         <x:v>0</x:v>
@@ -1265,7 +1265,7 @@
         <x:v>10.75</x:v>
       </x:c>
       <x:c r="O11" s="0">
-        <x:v>-15721.85</x:v>
+        <x:v>150.82</x:v>
       </x:c>
       <x:c r="P11" s="0">
         <x:v>0</x:v>
@@ -1309,7 +1309,7 @@
         <x:v>11.75</x:v>
       </x:c>
       <x:c r="O12" s="0">
-        <x:v>-15710.1</x:v>
+        <x:v>162.57</x:v>
       </x:c>
       <x:c r="P12" s="0">
         <x:v>0</x:v>
@@ -1353,7 +1353,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="O13" s="0">
-        <x:v>-15702.1</x:v>
+        <x:v>170.57</x:v>
       </x:c>
       <x:c r="P13" s="0">
         <x:v>0</x:v>
@@ -1397,7 +1397,7 @@
         <x:v>7.17</x:v>
       </x:c>
       <x:c r="O14" s="0">
-        <x:v>-15694.93</x:v>
+        <x:v>177.74</x:v>
       </x:c>
       <x:c r="P14" s="0">
         <x:v>0</x:v>
@@ -1441,7 +1441,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O15" s="0">
-        <x:v>-15694.93</x:v>
+        <x:v>177.74</x:v>
       </x:c>
       <x:c r="P15" s="0">
         <x:v>0</x:v>
@@ -1485,7 +1485,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O16" s="0">
-        <x:v>-15694.93</x:v>
+        <x:v>177.74</x:v>
       </x:c>
       <x:c r="P16" s="0">
         <x:v>0</x:v>
@@ -1529,7 +1529,7 @@
         <x:v>10.5</x:v>
       </x:c>
       <x:c r="O17" s="0">
-        <x:v>-15684.43</x:v>
+        <x:v>188.24</x:v>
       </x:c>
       <x:c r="P17" s="0">
         <x:v>0</x:v>
@@ -1573,7 +1573,7 @@
         <x:v>10.83</x:v>
       </x:c>
       <x:c r="O18" s="0">
-        <x:v>-15673.6</x:v>
+        <x:v>199.07</x:v>
       </x:c>
       <x:c r="P18" s="0">
         <x:v>0</x:v>
@@ -1617,7 +1617,7 @@
         <x:v>9.92</x:v>
       </x:c>
       <x:c r="O19" s="0">
-        <x:v>-15663.68</x:v>
+        <x:v>208.99</x:v>
       </x:c>
       <x:c r="P19" s="0">
         <x:v>0</x:v>
@@ -1661,7 +1661,7 @@
         <x:v>9.75</x:v>
       </x:c>
       <x:c r="O20" s="0">
-        <x:v>-15653.93</x:v>
+        <x:v>218.74</x:v>
       </x:c>
       <x:c r="P20" s="0">
         <x:v>0</x:v>
@@ -1705,7 +1705,7 @@
         <x:v>10.17</x:v>
       </x:c>
       <x:c r="O21" s="0">
-        <x:v>-15643.76</x:v>
+        <x:v>228.91</x:v>
       </x:c>
       <x:c r="P21" s="0">
         <x:v>0</x:v>
@@ -1749,7 +1749,7 @@
         <x:v>3.25</x:v>
       </x:c>
       <x:c r="O22" s="0">
-        <x:v>-15640.51</x:v>
+        <x:v>232.16</x:v>
       </x:c>
       <x:c r="P22" s="0">
         <x:v>0</x:v>
@@ -1793,7 +1793,7 @@
         <x:v>3.08</x:v>
       </x:c>
       <x:c r="O23" s="0">
-        <x:v>-15637.43</x:v>
+        <x:v>235.24</x:v>
       </x:c>
       <x:c r="P23" s="0">
         <x:v>0</x:v>
@@ -1837,7 +1837,7 @@
         <x:v>9.58</x:v>
       </x:c>
       <x:c r="O24" s="0">
-        <x:v>-15627.85</x:v>
+        <x:v>244.82</x:v>
       </x:c>
       <x:c r="P24" s="0">
         <x:v>0</x:v>
@@ -1881,7 +1881,7 @@
         <x:v>9.25</x:v>
       </x:c>
       <x:c r="O25" s="0">
-        <x:v>-15618.6</x:v>
+        <x:v>254.07</x:v>
       </x:c>
       <x:c r="P25" s="0">
         <x:v>0</x:v>
@@ -1925,7 +1925,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="O26" s="0">
-        <x:v>-15607.6</x:v>
+        <x:v>265.07</x:v>
       </x:c>
       <x:c r="P26" s="0">
         <x:v>0</x:v>
@@ -1969,7 +1969,7 @@
         <x:v>10.75</x:v>
       </x:c>
       <x:c r="O27" s="0">
-        <x:v>-15596.85</x:v>
+        <x:v>275.82</x:v>
       </x:c>
       <x:c r="P27" s="0">
         <x:v>0</x:v>
@@ -2013,7 +2013,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O28" s="0">
-        <x:v>-15596.85</x:v>
+        <x:v>275.82</x:v>
       </x:c>
       <x:c r="P28" s="0">
         <x:v>0</x:v>
@@ -2057,7 +2057,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O29" s="0">
-        <x:v>-15596.85</x:v>
+        <x:v>275.82</x:v>
       </x:c>
       <x:c r="P29" s="0">
         <x:v>0</x:v>
@@ -2101,7 +2101,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O30" s="0">
-        <x:v>-15596.85</x:v>
+        <x:v>275.82</x:v>
       </x:c>
       <x:c r="P30" s="0">
         <x:v>0</x:v>
@@ -2145,7 +2145,7 @@
         <x:v>9.75</x:v>
       </x:c>
       <x:c r="O31" s="0">
-        <x:v>-15587.1</x:v>
+        <x:v>285.57</x:v>
       </x:c>
       <x:c r="P31" s="0">
         <x:v>0</x:v>
@@ -2189,10 +2189,10 @@
         <x:v>9.5</x:v>
       </x:c>
       <x:c r="O32" s="0">
-        <x:v>-31610.6</x:v>
+        <x:v>134.74</x:v>
       </x:c>
       <x:c r="P32" s="0">
-        <x:v>16033</x:v>
+        <x:v>160.33</x:v>
       </x:c>
       <x:c r="S32" s="0" t="s">
         <x:v>60</x:v>
@@ -2236,7 +2236,7 @@
         <x:v>9.5</x:v>
       </x:c>
       <x:c r="O33" s="0">
-        <x:v>-31601.1</x:v>
+        <x:v>144.24</x:v>
       </x:c>
       <x:c r="P33" s="0">
         <x:v>0</x:v>
@@ -2280,7 +2280,7 @@
         <x:v>8.58</x:v>
       </x:c>
       <x:c r="O34" s="0">
-        <x:v>-31592.52</x:v>
+        <x:v>152.82</x:v>
       </x:c>
       <x:c r="P34" s="0">
         <x:v>0</x:v>
@@ -2324,7 +2324,7 @@
         <x:v>7.5</x:v>
       </x:c>
       <x:c r="O35" s="0">
-        <x:v>-31585.02</x:v>
+        <x:v>160.32</x:v>
       </x:c>
       <x:c r="P35" s="0">
         <x:v>0</x:v>
@@ -2368,7 +2368,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O36" s="0">
-        <x:v>-31585.02</x:v>
+        <x:v>160.32</x:v>
       </x:c>
       <x:c r="P36" s="0">
         <x:v>0</x:v>
@@ -2412,7 +2412,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O37" s="0">
-        <x:v>-31585.02</x:v>
+        <x:v>160.32</x:v>
       </x:c>
       <x:c r="P37" s="0">
         <x:v>0</x:v>
@@ -2456,7 +2456,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="O38" s="0">
-        <x:v>-31576.02</x:v>
+        <x:v>169.32</x:v>
       </x:c>
       <x:c r="P38" s="0">
         <x:v>0</x:v>
@@ -2500,7 +2500,7 @@
         <x:v>10.92</x:v>
       </x:c>
       <x:c r="O39" s="0">
-        <x:v>-31565.1</x:v>
+        <x:v>180.24</x:v>
       </x:c>
       <x:c r="P39" s="0">
         <x:v>0</x:v>
@@ -2544,7 +2544,7 @@
         <x:v>10.33</x:v>
       </x:c>
       <x:c r="O40" s="0">
-        <x:v>-31554.77</x:v>
+        <x:v>190.57</x:v>
       </x:c>
       <x:c r="P40" s="0">
         <x:v>0</x:v>
@@ -2588,7 +2588,7 @@
         <x:v>9.33</x:v>
       </x:c>
       <x:c r="O41" s="0">
-        <x:v>-31545.44</x:v>
+        <x:v>199.9</x:v>
       </x:c>
       <x:c r="P41" s="0">
         <x:v>0</x:v>
@@ -2632,7 +2632,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="O42" s="0">
-        <x:v>-31535.44</x:v>
+        <x:v>209.9</x:v>
       </x:c>
       <x:c r="P42" s="0">
         <x:v>0</x:v>
@@ -2676,7 +2676,7 @@
         <x:v>3.92</x:v>
       </x:c>
       <x:c r="O43" s="0">
-        <x:v>-31531.52</x:v>
+        <x:v>213.82</x:v>
       </x:c>
       <x:c r="P43" s="0">
         <x:v>0</x:v>
@@ -2720,7 +2720,7 @@
         <x:v>3.83</x:v>
       </x:c>
       <x:c r="O44" s="0">
-        <x:v>-31527.69</x:v>
+        <x:v>217.65</x:v>
       </x:c>
       <x:c r="P44" s="0">
         <x:v>0</x:v>
@@ -2764,7 +2764,7 @@
         <x:v>10.5</x:v>
       </x:c>
       <x:c r="O45" s="0">
-        <x:v>-31517.19</x:v>
+        <x:v>228.15</x:v>
       </x:c>
       <x:c r="P45" s="0">
         <x:v>0</x:v>
@@ -2808,7 +2808,7 @@
         <x:v>9.5</x:v>
       </x:c>
       <x:c r="O46" s="0">
-        <x:v>-31507.69</x:v>
+        <x:v>237.65</x:v>
       </x:c>
       <x:c r="P46" s="0">
         <x:v>0</x:v>
@@ -2852,7 +2852,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="O47" s="0">
-        <x:v>-31496.69</x:v>
+        <x:v>248.65</x:v>
       </x:c>
       <x:c r="P47" s="0">
         <x:v>0</x:v>
@@ -2896,7 +2896,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="O48" s="0">
-        <x:v>-31486.69</x:v>
+        <x:v>258.65</x:v>
       </x:c>
       <x:c r="P48" s="0">
         <x:v>0</x:v>
@@ -2940,7 +2940,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="O49" s="0">
-        <x:v>-31477.69</x:v>
+        <x:v>267.65</x:v>
       </x:c>
       <x:c r="P49" s="0">
         <x:v>0</x:v>
@@ -2984,7 +2984,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O50" s="0">
-        <x:v>-31477.69</x:v>
+        <x:v>267.65</x:v>
       </x:c>
       <x:c r="P50" s="0">
         <x:v>0</x:v>
@@ -3028,7 +3028,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O51" s="0">
-        <x:v>-31477.69</x:v>
+        <x:v>267.65</x:v>
       </x:c>
       <x:c r="P51" s="0">
         <x:v>0</x:v>
@@ -3072,7 +3072,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="O52" s="0">
-        <x:v>-31468.69</x:v>
+        <x:v>276.65</x:v>
       </x:c>
       <x:c r="P52" s="0">
         <x:v>0</x:v>
@@ -3116,7 +3116,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="O53" s="0">
-        <x:v>-31460.69</x:v>
+        <x:v>284.65</x:v>
       </x:c>
       <x:c r="P53" s="0">
         <x:v>0</x:v>
@@ -3160,7 +3160,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="O54" s="0">
-        <x:v>-31451.69</x:v>
+        <x:v>293.65</x:v>
       </x:c>
       <x:c r="P54" s="0">
         <x:v>0</x:v>
@@ -3204,7 +3204,7 @@
         <x:v>9.42</x:v>
       </x:c>
       <x:c r="O55" s="0">
-        <x:v>-31442.27</x:v>
+        <x:v>303.07</x:v>
       </x:c>
       <x:c r="P55" s="0">
         <x:v>0</x:v>
@@ -3248,7 +3248,7 @@
         <x:v>7.83</x:v>
       </x:c>
       <x:c r="O56" s="0">
-        <x:v>-31434.44</x:v>
+        <x:v>310.9</x:v>
       </x:c>
       <x:c r="P56" s="0">
         <x:v>0</x:v>
@@ -3292,7 +3292,7 @@
         <x:v>0.83</x:v>
       </x:c>
       <x:c r="O57" s="0">
-        <x:v>-31433.61</x:v>
+        <x:v>311.73</x:v>
       </x:c>
       <x:c r="P57" s="0">
         <x:v>0</x:v>
@@ -3336,7 +3336,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O58" s="0">
-        <x:v>-31433.61</x:v>
+        <x:v>311.73</x:v>
       </x:c>
       <x:c r="P58" s="0">
         <x:v>0</x:v>
@@ -3380,7 +3380,7 @@
         <x:v>9.25</x:v>
       </x:c>
       <x:c r="O59" s="0">
-        <x:v>-31424.36</x:v>
+        <x:v>320.98</x:v>
       </x:c>
       <x:c r="P59" s="0">
         <x:v>0</x:v>
@@ -3424,10 +3424,10 @@
         <x:v>9.5</x:v>
       </x:c>
       <x:c r="O60" s="0">
-        <x:v>-47447.86</x:v>
+        <x:v>170.15</x:v>
       </x:c>
       <x:c r="P60" s="0">
-        <x:v>16033</x:v>
+        <x:v>160.33</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:19">
@@ -3468,7 +3468,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="O61" s="0">
-        <x:v>-47436.86</x:v>
+        <x:v>181.15</x:v>
       </x:c>
       <x:c r="P61" s="0">
         <x:v>0</x:v>
@@ -3512,7 +3512,7 @@
         <x:v>11.5</x:v>
       </x:c>
       <x:c r="O62" s="0">
-        <x:v>-47425.36</x:v>
+        <x:v>192.65</x:v>
       </x:c>
       <x:c r="P62" s="0">
         <x:v>0</x:v>
@@ -3556,7 +3556,7 @@
         <x:v>6.5</x:v>
       </x:c>
       <x:c r="O63" s="0">
-        <x:v>-47418.86</x:v>
+        <x:v>199.15</x:v>
       </x:c>
       <x:c r="P63" s="0">
         <x:v>0</x:v>
@@ -3600,7 +3600,7 @@
         <x:v>11.25</x:v>
       </x:c>
       <x:c r="O64" s="0">
-        <x:v>-47407.61</x:v>
+        <x:v>210.4</x:v>
       </x:c>
       <x:c r="P64" s="0">
         <x:v>0</x:v>
@@ -3644,7 +3644,7 @@
         <x:v>4.75</x:v>
       </x:c>
       <x:c r="O65" s="0">
-        <x:v>-47402.86</x:v>
+        <x:v>215.15</x:v>
       </x:c>
       <x:c r="P65" s="0">
         <x:v>0</x:v>
@@ -3688,7 +3688,7 @@
         <x:v>12.75</x:v>
       </x:c>
       <x:c r="O66" s="0">
-        <x:v>-47390.11</x:v>
+        <x:v>227.9</x:v>
       </x:c>
       <x:c r="P66" s="0">
         <x:v>0</x:v>
@@ -3732,7 +3732,7 @@
         <x:v>10.08</x:v>
       </x:c>
       <x:c r="O67" s="0">
-        <x:v>-47380.03</x:v>
+        <x:v>237.98</x:v>
       </x:c>
       <x:c r="P67" s="0">
         <x:v>0</x:v>
@@ -3776,7 +3776,7 @@
         <x:v>11.5</x:v>
       </x:c>
       <x:c r="O68" s="0">
-        <x:v>-47368.53</x:v>
+        <x:v>249.48</x:v>
       </x:c>
       <x:c r="P68" s="0">
         <x:v>0</x:v>
@@ -3820,7 +3820,7 @@
         <x:v>9.83</x:v>
       </x:c>
       <x:c r="O69" s="0">
-        <x:v>-47358.7</x:v>
+        <x:v>259.31</x:v>
       </x:c>
       <x:c r="P69" s="0">
         <x:v>0</x:v>
@@ -3864,7 +3864,7 @@
         <x:v>6.83</x:v>
       </x:c>
       <x:c r="O70" s="0">
-        <x:v>-47351.87</x:v>
+        <x:v>266.14</x:v>
       </x:c>
       <x:c r="P70" s="0">
         <x:v>0</x:v>
@@ -3908,7 +3908,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O71" s="0">
-        <x:v>-47351.87</x:v>
+        <x:v>266.14</x:v>
       </x:c>
       <x:c r="P71" s="0">
         <x:v>0</x:v>
@@ -3952,7 +3952,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O72" s="0">
-        <x:v>-47351.87</x:v>
+        <x:v>266.14</x:v>
       </x:c>
       <x:c r="P72" s="0">
         <x:v>0</x:v>
@@ -3996,7 +3996,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="O73" s="0">
-        <x:v>-47341.87</x:v>
+        <x:v>276.14</x:v>
       </x:c>
       <x:c r="P73" s="0">
         <x:v>0</x:v>
@@ -4040,7 +4040,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O74" s="0">
-        <x:v>-47341.87</x:v>
+        <x:v>276.14</x:v>
       </x:c>
       <x:c r="P74" s="0">
         <x:v>0</x:v>
@@ -4084,7 +4084,7 @@
         <x:v>10.67</x:v>
       </x:c>
       <x:c r="O75" s="0">
-        <x:v>-47331.2</x:v>
+        <x:v>286.81</x:v>
       </x:c>
       <x:c r="P75" s="0">
         <x:v>0</x:v>
@@ -4128,7 +4128,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O76" s="0">
-        <x:v>-47331.2</x:v>
+        <x:v>286.81</x:v>
       </x:c>
       <x:c r="P76" s="0">
         <x:v>0</x:v>
@@ -4172,7 +4172,7 @@
         <x:v>7.5</x:v>
       </x:c>
       <x:c r="O77" s="0">
-        <x:v>-47323.7</x:v>
+        <x:v>294.31</x:v>
       </x:c>
       <x:c r="P77" s="0">
         <x:v>0</x:v>
@@ -4216,7 +4216,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O78" s="0">
-        <x:v>-47323.7</x:v>
+        <x:v>294.31</x:v>
       </x:c>
       <x:c r="P78" s="0">
         <x:v>0</x:v>
@@ -4260,7 +4260,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O79" s="0">
-        <x:v>-47323.7</x:v>
+        <x:v>294.31</x:v>
       </x:c>
       <x:c r="P79" s="0">
         <x:v>0</x:v>
@@ -4304,7 +4304,7 @@
         <x:v>6.5</x:v>
       </x:c>
       <x:c r="O80" s="0">
-        <x:v>-47317.2</x:v>
+        <x:v>300.81</x:v>
       </x:c>
       <x:c r="P80" s="0">
         <x:v>0</x:v>
@@ -4348,7 +4348,7 @@
         <x:v>8.17</x:v>
       </x:c>
       <x:c r="O81" s="0">
-        <x:v>-47309.03</x:v>
+        <x:v>308.98</x:v>
       </x:c>
       <x:c r="P81" s="0">
         <x:v>0</x:v>
@@ -4392,7 +4392,7 @@
         <x:v>10.5</x:v>
       </x:c>
       <x:c r="O82" s="0">
-        <x:v>-47298.53</x:v>
+        <x:v>319.48</x:v>
       </x:c>
       <x:c r="P82" s="0">
         <x:v>0</x:v>
@@ -4436,7 +4436,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="O83" s="0">
-        <x:v>-47290.53</x:v>
+        <x:v>327.48</x:v>
       </x:c>
       <x:c r="P83" s="0">
         <x:v>0</x:v>
@@ -4480,7 +4480,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="O84" s="0">
-        <x:v>-47282.53</x:v>
+        <x:v>335.48</x:v>
       </x:c>
       <x:c r="P84" s="0">
         <x:v>0</x:v>
@@ -4524,7 +4524,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="O85" s="0">
-        <x:v>-47279.53</x:v>
+        <x:v>338.48</x:v>
       </x:c>
       <x:c r="P85" s="0">
         <x:v>0</x:v>
@@ -4568,7 +4568,7 @@
         <x:v>4.75</x:v>
       </x:c>
       <x:c r="O86" s="0">
-        <x:v>-47274.78</x:v>
+        <x:v>343.23</x:v>
       </x:c>
       <x:c r="P86" s="0">
         <x:v>0</x:v>
@@ -4612,7 +4612,7 @@
         <x:v>10.25</x:v>
       </x:c>
       <x:c r="O87" s="0">
-        <x:v>-47264.53</x:v>
+        <x:v>353.48</x:v>
       </x:c>
       <x:c r="P87" s="0">
         <x:v>0</x:v>
@@ -4656,7 +4656,7 @@
         <x:v>9.17</x:v>
       </x:c>
       <x:c r="O88" s="0">
-        <x:v>-47255.36</x:v>
+        <x:v>362.65</x:v>
       </x:c>
       <x:c r="P88" s="0">
         <x:v>0</x:v>
@@ -4700,7 +4700,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="O89" s="0">
-        <x:v>-47247.36</x:v>
+        <x:v>370.65</x:v>
       </x:c>
       <x:c r="P89" s="0">
         <x:v>0</x:v>
@@ -4744,7 +4744,7 @@
         <x:v>10.25</x:v>
       </x:c>
       <x:c r="O90" s="0">
-        <x:v>-47237.11</x:v>
+        <x:v>380.9</x:v>
       </x:c>
       <x:c r="P90" s="0">
         <x:v>0</x:v>
@@ -4788,10 +4788,10 @@
         <x:v>2.5</x:v>
       </x:c>
       <x:c r="O91" s="0">
-        <x:v>-63267.61</x:v>
+        <x:v>223.07</x:v>
       </x:c>
       <x:c r="P91" s="0">
-        <x:v>16033</x:v>
+        <x:v>160.33</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:19">
@@ -4832,7 +4832,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O92" s="0">
-        <x:v>-63267.61</x:v>
+        <x:v>223.07</x:v>
       </x:c>
       <x:c r="P92" s="0">
         <x:v>0</x:v>
@@ -4876,7 +4876,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O93" s="0">
-        <x:v>-63267.61</x:v>
+        <x:v>223.07</x:v>
       </x:c>
       <x:c r="P93" s="0">
         <x:v>0</x:v>
@@ -4920,7 +4920,7 @@
         <x:v>13.75</x:v>
       </x:c>
       <x:c r="O94" s="0">
-        <x:v>-63253.86</x:v>
+        <x:v>236.82</x:v>
       </x:c>
       <x:c r="P94" s="0">
         <x:v>0</x:v>
@@ -4964,7 +4964,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="O95" s="0">
-        <x:v>-63237.86</x:v>
+        <x:v>252.82</x:v>
       </x:c>
       <x:c r="P95" s="0">
         <x:v>0</x:v>
@@ -5008,7 +5008,7 @@
         <x:v>14.5</x:v>
       </x:c>
       <x:c r="O96" s="0">
-        <x:v>-63223.36</x:v>
+        <x:v>267.32</x:v>
       </x:c>
       <x:c r="P96" s="0">
         <x:v>0</x:v>
@@ -5052,7 +5052,7 @@
         <x:v>15.58</x:v>
       </x:c>
       <x:c r="O97" s="0">
-        <x:v>-63207.78</x:v>
+        <x:v>282.9</x:v>
       </x:c>
       <x:c r="P97" s="0">
         <x:v>0</x:v>
@@ -5096,7 +5096,7 @@
         <x:v>8.67</x:v>
       </x:c>
       <x:c r="O98" s="0">
-        <x:v>-63199.11</x:v>
+        <x:v>291.57</x:v>
       </x:c>
       <x:c r="P98" s="0">
         <x:v>0</x:v>
@@ -5140,7 +5140,7 @@
         <x:v>16.58</x:v>
       </x:c>
       <x:c r="O99" s="0">
-        <x:v>-63182.53</x:v>
+        <x:v>308.15</x:v>
       </x:c>
       <x:c r="P99" s="0">
         <x:v>0</x:v>
@@ -5184,7 +5184,7 @@
         <x:v>13.75</x:v>
       </x:c>
       <x:c r="O100" s="0">
-        <x:v>-63168.78</x:v>
+        <x:v>321.9</x:v>
       </x:c>
       <x:c r="P100" s="0">
         <x:v>0</x:v>
@@ -5228,7 +5228,7 @@
         <x:v>13.58</x:v>
       </x:c>
       <x:c r="O101" s="0">
-        <x:v>-63155.2</x:v>
+        <x:v>335.48</x:v>
       </x:c>
       <x:c r="P101" s="0">
         <x:v>0</x:v>
@@ -5272,7 +5272,7 @@
         <x:v>18.25</x:v>
       </x:c>
       <x:c r="O102" s="0">
-        <x:v>-63136.95</x:v>
+        <x:v>353.73</x:v>
       </x:c>
       <x:c r="P102" s="0">
         <x:v>0</x:v>
@@ -5316,7 +5316,7 @@
         <x:v>10.83</x:v>
       </x:c>
       <x:c r="O103" s="0">
-        <x:v>-63126.12</x:v>
+        <x:v>364.56</x:v>
       </x:c>
       <x:c r="P103" s="0">
         <x:v>0</x:v>
@@ -5360,7 +5360,7 @@
         <x:v>9.83</x:v>
       </x:c>
       <x:c r="O104" s="0">
-        <x:v>-63116.29</x:v>
+        <x:v>374.39</x:v>
       </x:c>
       <x:c r="P104" s="0">
         <x:v>0</x:v>
@@ -5404,7 +5404,7 @@
         <x:v>8.83</x:v>
       </x:c>
       <x:c r="O105" s="0">
-        <x:v>-63107.46</x:v>
+        <x:v>383.22</x:v>
       </x:c>
       <x:c r="P105" s="0">
         <x:v>0</x:v>
@@ -5448,7 +5448,7 @@
         <x:v>5.25</x:v>
       </x:c>
       <x:c r="O106" s="0">
-        <x:v>-63102.21</x:v>
+        <x:v>388.47</x:v>
       </x:c>
       <x:c r="P106" s="0">
         <x:v>0</x:v>
@@ -5492,7 +5492,7 @@
         <x:v>6.33</x:v>
       </x:c>
       <x:c r="O107" s="0">
-        <x:v>-63095.88</x:v>
+        <x:v>394.8</x:v>
       </x:c>
       <x:c r="P107" s="0">
         <x:v>0</x:v>
@@ -5536,7 +5536,7 @@
         <x:v>16.08</x:v>
       </x:c>
       <x:c r="O108" s="0">
-        <x:v>-63079.8</x:v>
+        <x:v>410.88</x:v>
       </x:c>
       <x:c r="P108" s="0">
         <x:v>0</x:v>
@@ -5580,7 +5580,7 @@
         <x:v>12.5</x:v>
       </x:c>
       <x:c r="O109" s="0">
-        <x:v>-63067.3</x:v>
+        <x:v>423.38</x:v>
       </x:c>
       <x:c r="P109" s="0">
         <x:v>0</x:v>
@@ -5624,7 +5624,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="O110" s="0">
-        <x:v>-63053.3</x:v>
+        <x:v>437.38</x:v>
       </x:c>
       <x:c r="P110" s="0">
         <x:v>0</x:v>
@@ -5668,7 +5668,7 @@
         <x:v>16.25</x:v>
       </x:c>
       <x:c r="O111" s="0">
-        <x:v>-63037.05</x:v>
+        <x:v>453.63</x:v>
       </x:c>
       <x:c r="P111" s="0">
         <x:v>0</x:v>
@@ -5712,7 +5712,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="O112" s="0">
-        <x:v>-63022.05</x:v>
+        <x:v>468.63</x:v>
       </x:c>
       <x:c r="P112" s="0">
         <x:v>0</x:v>
@@ -5756,7 +5756,7 @@
         <x:v>14.5</x:v>
       </x:c>
       <x:c r="O113" s="0">
-        <x:v>-63007.55</x:v>
+        <x:v>483.13</x:v>
       </x:c>
       <x:c r="P113" s="0">
         <x:v>0</x:v>
@@ -5800,7 +5800,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O114" s="0">
-        <x:v>-63003.55</x:v>
+        <x:v>487.13</x:v>
       </x:c>
       <x:c r="P114" s="0">
         <x:v>0</x:v>
@@ -5844,7 +5844,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O115" s="0">
-        <x:v>-63003.55</x:v>
+        <x:v>487.13</x:v>
       </x:c>
       <x:c r="P115" s="0">
         <x:v>0</x:v>
@@ -5888,7 +5888,7 @@
         <x:v>10.5</x:v>
       </x:c>
       <x:c r="O116" s="0">
-        <x:v>-62993.05</x:v>
+        <x:v>497.63</x:v>
       </x:c>
       <x:c r="P116" s="0">
         <x:v>0</x:v>
@@ -5932,7 +5932,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O117" s="0">
-        <x:v>-62993.05</x:v>
+        <x:v>497.63</x:v>
       </x:c>
       <x:c r="P117" s="0">
         <x:v>0</x:v>
@@ -5976,7 +5976,7 @@
         <x:v>16.58</x:v>
       </x:c>
       <x:c r="O118" s="0">
-        <x:v>-62976.47</x:v>
+        <x:v>514.21</x:v>
       </x:c>
       <x:c r="P118" s="0">
         <x:v>0</x:v>
@@ -6020,7 +6020,7 @@
         <x:v>17.5</x:v>
       </x:c>
       <x:c r="O119" s="0">
-        <x:v>-62958.97</x:v>
+        <x:v>531.71</x:v>
       </x:c>
       <x:c r="P119" s="0">
         <x:v>0</x:v>
@@ -6064,7 +6064,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="O120" s="0">
-        <x:v>-62940.97</x:v>
+        <x:v>549.71</x:v>
       </x:c>
       <x:c r="P120" s="0">
         <x:v>0</x:v>
@@ -6108,10 +6108,10 @@
         <x:v>16.5</x:v>
       </x:c>
       <x:c r="O121" s="0">
-        <x:v>-78957.47</x:v>
+        <x:v>405.88</x:v>
       </x:c>
       <x:c r="P121" s="0">
-        <x:v>16033</x:v>
+        <x:v>160.33</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:19">
@@ -6152,7 +6152,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="O122" s="0">
-        <x:v>-78946.47</x:v>
+        <x:v>416.88</x:v>
       </x:c>
       <x:c r="P122" s="0">
         <x:v>0</x:v>
@@ -6196,7 +6196,7 @@
         <x:v>16.92</x:v>
       </x:c>
       <x:c r="O123" s="0">
-        <x:v>-78929.55</x:v>
+        <x:v>433.8</x:v>
       </x:c>
       <x:c r="P123" s="0">
         <x:v>0</x:v>
@@ -6240,7 +6240,7 @@
         <x:v>17.42</x:v>
       </x:c>
       <x:c r="O124" s="0">
-        <x:v>-78912.13</x:v>
+        <x:v>451.22</x:v>
       </x:c>
       <x:c r="P124" s="0">
         <x:v>0</x:v>
@@ -6284,7 +6284,7 @@
         <x:v>12.5</x:v>
       </x:c>
       <x:c r="O125" s="0">
-        <x:v>-78899.63</x:v>
+        <x:v>463.72</x:v>
       </x:c>
       <x:c r="P125" s="0">
         <x:v>0</x:v>
@@ -6328,7 +6328,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O126" s="0">
-        <x:v>-78899.63</x:v>
+        <x:v>463.72</x:v>
       </x:c>
       <x:c r="P126" s="0">
         <x:v>0</x:v>
@@ -6372,7 +6372,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O127" s="0">
-        <x:v>-78899.63</x:v>
+        <x:v>463.72</x:v>
       </x:c>
       <x:c r="P127" s="0">
         <x:v>0</x:v>
@@ -6416,7 +6416,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="O128" s="0">
-        <x:v>-78894.63</x:v>
+        <x:v>468.72</x:v>
       </x:c>
       <x:c r="P128" s="0">
         <x:v>0</x:v>
@@ -6460,7 +6460,7 @@
         <x:v>19.08</x:v>
       </x:c>
       <x:c r="O129" s="0">
-        <x:v>-78875.55</x:v>
+        <x:v>487.8</x:v>
       </x:c>
       <x:c r="P129" s="0">
         <x:v>0</x:v>
@@ -6504,7 +6504,7 @@
         <x:v>10.08</x:v>
       </x:c>
       <x:c r="O130" s="0">
-        <x:v>-78865.47</x:v>
+        <x:v>497.88</x:v>
       </x:c>
       <x:c r="P130" s="0">
         <x:v>0</x:v>
@@ -6548,7 +6548,7 @@
         <x:v>9.25</x:v>
       </x:c>
       <x:c r="O131" s="0">
-        <x:v>-78856.22</x:v>
+        <x:v>507.13</x:v>
       </x:c>
       <x:c r="P131" s="0">
         <x:v>0</x:v>
@@ -6592,7 +6592,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O132" s="0">
-        <x:v>-78856.22</x:v>
+        <x:v>507.13</x:v>
       </x:c>
       <x:c r="P132" s="0">
         <x:v>0</x:v>
